--- a/Code/Results/Cases/Case_3_51/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_51/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.576425990837492</v>
+        <v>2.576425990837436</v>
       </c>
       <c r="C2">
-        <v>0.4781696545049954</v>
+        <v>0.4781696545052228</v>
       </c>
       <c r="D2">
-        <v>0.03830695898990655</v>
+        <v>0.03830695899001313</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.409040848048974</v>
+        <v>2.409040848049003</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -436,10 +436,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.6759295098384044</v>
+        <v>0.6759295098384257</v>
       </c>
       <c r="K2">
-        <v>1.808865436275227</v>
+        <v>1.808865436275184</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.214426375005587</v>
+        <v>2.214426375005758</v>
       </c>
       <c r="C3">
-        <v>0.411970488370514</v>
+        <v>0.4119704883704571</v>
       </c>
       <c r="D3">
-        <v>0.03721432419989412</v>
+        <v>0.03721432419989767</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.128209734840951</v>
+        <v>2.128209734840965</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -474,10 +474,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.5811859742782133</v>
+        <v>0.5811859742782559</v>
       </c>
       <c r="K3">
-        <v>1.539124947587695</v>
+        <v>1.539124947587666</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.99622431465869</v>
+        <v>1.996224314658576</v>
       </c>
       <c r="C4">
-        <v>0.3719421168111978</v>
+        <v>0.3719421168115957</v>
       </c>
       <c r="D4">
-        <v>0.03664872044232581</v>
+        <v>0.03664872044254253</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.961622267398823</v>
+        <v>1.961622267398837</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.5240357729882206</v>
+        <v>0.5240357729882135</v>
       </c>
       <c r="K4">
-        <v>1.378965718307924</v>
+        <v>1.378965718307896</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,13 +526,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.908157348784897</v>
+        <v>1.908157348784812</v>
       </c>
       <c r="C5">
-        <v>0.3557588946371482</v>
+        <v>0.3557588946372618</v>
       </c>
       <c r="D5">
-        <v>0.03644132263021049</v>
+        <v>0.03644132263011102</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0.5009605844904783</v>
       </c>
       <c r="K5">
-        <v>1.314839369485668</v>
+        <v>1.314839369485654</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -567,31 +567,31 @@
         <v>1.893580739330275</v>
       </c>
       <c r="C6">
-        <v>0.3530787213826727</v>
+        <v>0.3530787213828148</v>
       </c>
       <c r="D6">
-        <v>0.03640818808231217</v>
+        <v>0.03640818808244362</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.884030236723547</v>
+        <v>1.884030236723532</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1.171697984270821</v>
+        <v>1.171697984270835</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.4971407180391481</v>
+        <v>0.4971407180391409</v>
       </c>
       <c r="K6">
-        <v>1.304253832392973</v>
+        <v>1.304253832392988</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,34 +602,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.995033373937304</v>
+        <v>1.995033373937446</v>
       </c>
       <c r="C7">
         <v>0.3717233767192738</v>
       </c>
       <c r="D7">
-        <v>0.03664583407304889</v>
+        <v>0.03664583407294231</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.960719061274361</v>
+        <v>1.960719061274347</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1.212343227748875</v>
+        <v>1.21234322774886</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.523723760148826</v>
+        <v>0.5237237601488118</v>
       </c>
       <c r="K7">
-        <v>1.37809655914451</v>
+        <v>1.378096559144495</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,25 +640,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.450655273772043</v>
+        <v>2.450655273771929</v>
       </c>
       <c r="C8">
-        <v>0.4551988663696704</v>
+        <v>0.455198866369642</v>
       </c>
       <c r="D8">
-        <v>0.03790619012093188</v>
+        <v>0.03790619012094609</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.310877267249936</v>
+        <v>2.310877267249893</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1.39906709536784</v>
+        <v>1.399067095367826</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0.6430220915929468</v>
       </c>
       <c r="K8">
-        <v>1.714574016526683</v>
+        <v>1.714574016526726</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,25 +678,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.385326429165616</v>
+        <v>3.385326429165559</v>
       </c>
       <c r="C9">
-        <v>0.6251746997141368</v>
+        <v>0.6251746997141083</v>
       </c>
       <c r="D9">
-        <v>0.04139292664953587</v>
+        <v>0.04139292664940797</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.053677033214427</v>
+        <v>3.053677033214399</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1.80016925965856</v>
+        <v>1.800169259658588</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.111961880091769</v>
+        <v>4.111961880091712</v>
       </c>
       <c r="C10">
-        <v>0.7561102232289727</v>
+        <v>0.7561102232284043</v>
       </c>
       <c r="D10">
-        <v>0.04487890512542947</v>
+        <v>0.04487890512522341</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.649706108395691</v>
+        <v>3.649706108395748</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -740,10 +740,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.076861956929719</v>
+        <v>1.076861956929733</v>
       </c>
       <c r="K10">
-        <v>3.012001080297296</v>
+        <v>3.012001080297281</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -757,7 +757,7 @@
         <v>4.455375804686298</v>
       </c>
       <c r="C11">
-        <v>0.817594008258169</v>
+        <v>0.8175940082581405</v>
       </c>
       <c r="D11">
         <v>0.04675472677276815</v>
@@ -766,22 +766,22 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.936260970582026</v>
+        <v>3.936260970582055</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2.283679015320942</v>
+        <v>2.283679015320956</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.166302882484658</v>
+        <v>1.166302882484672</v>
       </c>
       <c r="K11">
-        <v>3.295208689855329</v>
+        <v>3.295208689855386</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,34 +792,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.587706383859199</v>
+        <v>4.587706383859086</v>
       </c>
       <c r="C12">
         <v>0.841213424549295</v>
       </c>
       <c r="D12">
-        <v>0.04751646391294173</v>
+        <v>0.04751646391310516</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.047456735317212</v>
+        <v>4.047456735317155</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>2.345057676504538</v>
+        <v>2.34505767650451</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.200743597733094</v>
+        <v>1.20074359773308</v>
       </c>
       <c r="K12">
-        <v>3.405844057695163</v>
+        <v>3.40584405769512</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.559096912994676</v>
+        <v>4.559096912994789</v>
       </c>
       <c r="C13">
-        <v>0.8361104959402041</v>
+        <v>0.8361104959404315</v>
       </c>
       <c r="D13">
-        <v>0.04734994388970648</v>
+        <v>0.04734994388976332</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.02338089645184</v>
+        <v>4.023380896451869</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>1.193298797695945</v>
       </c>
       <c r="K13">
-        <v>3.381852503843334</v>
+        <v>3.381852503843419</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.466214039353758</v>
+        <v>4.466214039354043</v>
       </c>
       <c r="C14">
-        <v>0.8195300547230033</v>
+        <v>0.8195300547237707</v>
       </c>
       <c r="D14">
-        <v>0.04681630112999358</v>
+        <v>0.04681630113025648</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.94535230811465</v>
+        <v>3.945352308114622</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -892,10 +892,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.169124190589685</v>
+        <v>1.169124190589699</v>
       </c>
       <c r="K14">
-        <v>3.304237999479525</v>
+        <v>3.304237999479554</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.409633036600837</v>
+        <v>4.409633036600724</v>
       </c>
       <c r="C15">
-        <v>0.8094199071800006</v>
+        <v>0.8094199071796595</v>
       </c>
       <c r="D15">
-        <v>0.04649645166728078</v>
+        <v>0.0464964516673021</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -924,16 +924,16 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>2.262539465679552</v>
+        <v>2.262539465679538</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.154394541936028</v>
+        <v>1.154394541936014</v>
       </c>
       <c r="K15">
-        <v>3.257162875177883</v>
+        <v>3.257162875177912</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.089813159612959</v>
+        <v>4.089813159612902</v>
       </c>
       <c r="C16">
-        <v>0.7521357078774713</v>
+        <v>0.7521357078772155</v>
       </c>
       <c r="D16">
-        <v>0.04476292980494634</v>
+        <v>0.04476292980470475</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>2.115870729992423</v>
+        <v>2.115870729992409</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1.071090368737558</v>
+        <v>1.071090368737543</v>
       </c>
       <c r="K16">
-        <v>2.993924262332541</v>
+        <v>2.99392426233247</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.897192370899859</v>
+        <v>3.897192370899745</v>
       </c>
       <c r="C17">
-        <v>0.7175255617855214</v>
+        <v>0.717525561785493</v>
       </c>
       <c r="D17">
-        <v>0.04377996927561156</v>
+        <v>0.04377996927561867</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1000,16 +1000,16 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>2.028516772064791</v>
+        <v>2.028516772064805</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>1.020881581212933</v>
+        <v>1.020881581212976</v>
       </c>
       <c r="K17">
-        <v>2.837655639065261</v>
+        <v>2.837655639065247</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,34 +1020,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.787581933091133</v>
+        <v>3.787581933091303</v>
       </c>
       <c r="C18">
-        <v>0.697795304429377</v>
+        <v>0.6977953044293201</v>
       </c>
       <c r="D18">
-        <v>0.04324120016676858</v>
+        <v>0.04324120016712385</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.38182797826201</v>
+        <v>3.381827978262066</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>1.979148019157279</v>
+        <v>1.979148019157321</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.992298561788914</v>
+        <v>0.9922985617889282</v>
       </c>
       <c r="K18">
-        <v>2.749473294797895</v>
+        <v>2.749473294797866</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.750660489402605</v>
+        <v>3.750660489402378</v>
       </c>
       <c r="C19">
-        <v>0.6911436253407146</v>
+        <v>0.6911436253402599</v>
       </c>
       <c r="D19">
-        <v>0.04306309167075284</v>
+        <v>0.04306309167101574</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.351517375854883</v>
+        <v>3.351517375854911</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.917572182122342</v>
+        <v>3.917572182122512</v>
       </c>
       <c r="C20">
-        <v>0.7211911890792635</v>
+        <v>0.7211911890792067</v>
       </c>
       <c r="D20">
-        <v>0.04388179062453901</v>
+        <v>0.04388179062451769</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>2.037723301422403</v>
+        <v>2.03772330142246</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1123,7 +1123,7 @@
         <v>1.026195070263583</v>
       </c>
       <c r="K20">
-        <v>2.854110221339141</v>
+        <v>2.854110221339198</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,25 +1134,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.493429960456297</v>
+        <v>4.49342996045624</v>
       </c>
       <c r="C21">
-        <v>0.824390452810178</v>
+        <v>0.8243904528106896</v>
       </c>
       <c r="D21">
-        <v>0.0469715607777772</v>
+        <v>0.04697156077793352</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.968194158643342</v>
+        <v>3.968194158643314</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>2.301295706758992</v>
+        <v>2.301295706758964</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>1.176208378855407</v>
       </c>
       <c r="K21">
-        <v>3.326936593846213</v>
+        <v>3.326936593846199</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,10 +1172,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.883394738675406</v>
+        <v>4.883394738675463</v>
       </c>
       <c r="C22">
-        <v>0.8938370375913394</v>
+        <v>0.8938370375908278</v>
       </c>
       <c r="D22">
         <v>0.04929689081475885</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2.483384115520622</v>
+        <v>2.483384115520607</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.277648885349535</v>
+        <v>1.277648885349549</v>
       </c>
       <c r="K22">
-        <v>3.656201626795877</v>
+        <v>3.656201626795934</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.67384733562767</v>
+        <v>4.673847335627954</v>
       </c>
       <c r="C23">
-        <v>0.8565660758146123</v>
+        <v>0.8565660758155502</v>
       </c>
       <c r="D23">
-        <v>0.04802395894102318</v>
+        <v>0.04802395894094502</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.120064666005845</v>
+        <v>4.120064666005874</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>2.385188836176425</v>
+        <v>2.385188836176411</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.223155345128603</v>
+        <v>1.223155345128589</v>
       </c>
       <c r="K23">
-        <v>3.478325140612583</v>
+        <v>3.478325140612569</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,10 +1248,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.90835498207224</v>
+        <v>3.908354982072069</v>
       </c>
       <c r="C24">
-        <v>0.7195334414544163</v>
+        <v>0.7195334414539616</v>
       </c>
       <c r="D24">
         <v>0.04383567582400616</v>
@@ -1260,13 +1260,13 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.481236385160031</v>
+        <v>3.481236385160003</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>2.03355839596054</v>
+        <v>2.033558395960569</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>1.023791969221634</v>
       </c>
       <c r="K24">
-        <v>2.846665990011829</v>
+        <v>2.846665990011871</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,13 +1286,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.126681946213466</v>
+        <v>3.126681946213523</v>
       </c>
       <c r="C25">
-        <v>0.5783088374410852</v>
+        <v>0.5783088374413126</v>
       </c>
       <c r="D25">
-        <v>0.04031295754555941</v>
+        <v>0.0403129575456731</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1310,10 +1310,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.8197823379700111</v>
+        <v>0.8197823379700182</v>
       </c>
       <c r="K25">
-        <v>2.228736995817357</v>
+        <v>2.228736995817314</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_51/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_51/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.576425990837436</v>
+        <v>2.576425990837492</v>
       </c>
       <c r="C2">
-        <v>0.4781696545052228</v>
+        <v>0.4781696545049954</v>
       </c>
       <c r="D2">
-        <v>0.03830695899001313</v>
+        <v>0.03830695898990655</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.409040848049003</v>
+        <v>2.409040848048974</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -436,10 +436,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.6759295098384257</v>
+        <v>0.6759295098384044</v>
       </c>
       <c r="K2">
-        <v>1.808865436275184</v>
+        <v>1.808865436275227</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.214426375005758</v>
+        <v>2.214426375005587</v>
       </c>
       <c r="C3">
-        <v>0.4119704883704571</v>
+        <v>0.411970488370514</v>
       </c>
       <c r="D3">
-        <v>0.03721432419989767</v>
+        <v>0.03721432419989412</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.128209734840965</v>
+        <v>2.128209734840951</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -474,10 +474,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.5811859742782559</v>
+        <v>0.5811859742782133</v>
       </c>
       <c r="K3">
-        <v>1.539124947587666</v>
+        <v>1.539124947587695</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.996224314658576</v>
+        <v>1.99622431465869</v>
       </c>
       <c r="C4">
-        <v>0.3719421168115957</v>
+        <v>0.3719421168111978</v>
       </c>
       <c r="D4">
-        <v>0.03664872044254253</v>
+        <v>0.03664872044232581</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.961622267398837</v>
+        <v>1.961622267398823</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.5240357729882135</v>
+        <v>0.5240357729882206</v>
       </c>
       <c r="K4">
-        <v>1.378965718307896</v>
+        <v>1.378965718307924</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,13 +526,13 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.908157348784812</v>
+        <v>1.908157348784897</v>
       </c>
       <c r="C5">
-        <v>0.3557588946372618</v>
+        <v>0.3557588946371482</v>
       </c>
       <c r="D5">
-        <v>0.03644132263011102</v>
+        <v>0.03644132263021049</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0.5009605844904783</v>
       </c>
       <c r="K5">
-        <v>1.314839369485654</v>
+        <v>1.314839369485668</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -567,31 +567,31 @@
         <v>1.893580739330275</v>
       </c>
       <c r="C6">
-        <v>0.3530787213828148</v>
+        <v>0.3530787213826727</v>
       </c>
       <c r="D6">
-        <v>0.03640818808244362</v>
+        <v>0.03640818808231217</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.884030236723532</v>
+        <v>1.884030236723547</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1.171697984270835</v>
+        <v>1.171697984270821</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.4971407180391409</v>
+        <v>0.4971407180391481</v>
       </c>
       <c r="K6">
-        <v>1.304253832392988</v>
+        <v>1.304253832392973</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -602,34 +602,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.995033373937446</v>
+        <v>1.995033373937304</v>
       </c>
       <c r="C7">
         <v>0.3717233767192738</v>
       </c>
       <c r="D7">
-        <v>0.03664583407294231</v>
+        <v>0.03664583407304889</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.960719061274347</v>
+        <v>1.960719061274361</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1.21234322774886</v>
+        <v>1.212343227748875</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.5237237601488118</v>
+        <v>0.523723760148826</v>
       </c>
       <c r="K7">
-        <v>1.378096559144495</v>
+        <v>1.37809655914451</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -640,25 +640,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.450655273771929</v>
+        <v>2.450655273772043</v>
       </c>
       <c r="C8">
-        <v>0.455198866369642</v>
+        <v>0.4551988663696704</v>
       </c>
       <c r="D8">
-        <v>0.03790619012094609</v>
+        <v>0.03790619012093188</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.310877267249893</v>
+        <v>2.310877267249936</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1.399067095367826</v>
+        <v>1.39906709536784</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0.6430220915929468</v>
       </c>
       <c r="K8">
-        <v>1.714574016526726</v>
+        <v>1.714574016526683</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -678,25 +678,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.385326429165559</v>
+        <v>3.385326429165616</v>
       </c>
       <c r="C9">
-        <v>0.6251746997141083</v>
+        <v>0.6251746997141368</v>
       </c>
       <c r="D9">
-        <v>0.04139292664940797</v>
+        <v>0.04139292664953587</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.053677033214399</v>
+        <v>3.053677033214427</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1.800169259658588</v>
+        <v>1.80016925965856</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.111961880091712</v>
+        <v>4.111961880091769</v>
       </c>
       <c r="C10">
-        <v>0.7561102232284043</v>
+        <v>0.7561102232289727</v>
       </c>
       <c r="D10">
-        <v>0.04487890512522341</v>
+        <v>0.04487890512542947</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.649706108395748</v>
+        <v>3.649706108395691</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -740,10 +740,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>1.076861956929733</v>
+        <v>1.076861956929719</v>
       </c>
       <c r="K10">
-        <v>3.012001080297281</v>
+        <v>3.012001080297296</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -757,7 +757,7 @@
         <v>4.455375804686298</v>
       </c>
       <c r="C11">
-        <v>0.8175940082581405</v>
+        <v>0.817594008258169</v>
       </c>
       <c r="D11">
         <v>0.04675472677276815</v>
@@ -766,22 +766,22 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.936260970582055</v>
+        <v>3.936260970582026</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2.283679015320956</v>
+        <v>2.283679015320942</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>1.166302882484672</v>
+        <v>1.166302882484658</v>
       </c>
       <c r="K11">
-        <v>3.295208689855386</v>
+        <v>3.295208689855329</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -792,34 +792,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.587706383859086</v>
+        <v>4.587706383859199</v>
       </c>
       <c r="C12">
         <v>0.841213424549295</v>
       </c>
       <c r="D12">
-        <v>0.04751646391310516</v>
+        <v>0.04751646391294173</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.047456735317155</v>
+        <v>4.047456735317212</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>2.34505767650451</v>
+        <v>2.345057676504538</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>1.20074359773308</v>
+        <v>1.200743597733094</v>
       </c>
       <c r="K12">
-        <v>3.40584405769512</v>
+        <v>3.405844057695163</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.559096912994789</v>
+        <v>4.559096912994676</v>
       </c>
       <c r="C13">
-        <v>0.8361104959404315</v>
+        <v>0.8361104959402041</v>
       </c>
       <c r="D13">
-        <v>0.04734994388976332</v>
+        <v>0.04734994388970648</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.023380896451869</v>
+        <v>4.02338089645184</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -857,7 +857,7 @@
         <v>1.193298797695945</v>
       </c>
       <c r="K13">
-        <v>3.381852503843419</v>
+        <v>3.381852503843334</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.466214039354043</v>
+        <v>4.466214039353758</v>
       </c>
       <c r="C14">
-        <v>0.8195300547237707</v>
+        <v>0.8195300547230033</v>
       </c>
       <c r="D14">
-        <v>0.04681630113025648</v>
+        <v>0.04681630112999358</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.945352308114622</v>
+        <v>3.94535230811465</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -892,10 +892,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.169124190589699</v>
+        <v>1.169124190589685</v>
       </c>
       <c r="K14">
-        <v>3.304237999479554</v>
+        <v>3.304237999479525</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.409633036600724</v>
+        <v>4.409633036600837</v>
       </c>
       <c r="C15">
-        <v>0.8094199071796595</v>
+        <v>0.8094199071800006</v>
       </c>
       <c r="D15">
-        <v>0.0464964516673021</v>
+        <v>0.04649645166728078</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -924,16 +924,16 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>2.262539465679538</v>
+        <v>2.262539465679552</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>1.154394541936014</v>
+        <v>1.154394541936028</v>
       </c>
       <c r="K15">
-        <v>3.257162875177912</v>
+        <v>3.257162875177883</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.089813159612902</v>
+        <v>4.089813159612959</v>
       </c>
       <c r="C16">
-        <v>0.7521357078772155</v>
+        <v>0.7521357078774713</v>
       </c>
       <c r="D16">
-        <v>0.04476292980470475</v>
+        <v>0.04476292980494634</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>2.115870729992409</v>
+        <v>2.115870729992423</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>1.071090368737543</v>
+        <v>1.071090368737558</v>
       </c>
       <c r="K16">
-        <v>2.99392426233247</v>
+        <v>2.993924262332541</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -982,13 +982,13 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.897192370899745</v>
+        <v>3.897192370899859</v>
       </c>
       <c r="C17">
-        <v>0.717525561785493</v>
+        <v>0.7175255617855214</v>
       </c>
       <c r="D17">
-        <v>0.04377996927561867</v>
+        <v>0.04377996927561156</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1000,16 +1000,16 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>2.028516772064805</v>
+        <v>2.028516772064791</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>1.020881581212976</v>
+        <v>1.020881581212933</v>
       </c>
       <c r="K17">
-        <v>2.837655639065247</v>
+        <v>2.837655639065261</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1020,34 +1020,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.787581933091303</v>
+        <v>3.787581933091133</v>
       </c>
       <c r="C18">
-        <v>0.6977953044293201</v>
+        <v>0.697795304429377</v>
       </c>
       <c r="D18">
-        <v>0.04324120016712385</v>
+        <v>0.04324120016676858</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.381827978262066</v>
+        <v>3.38182797826201</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>1.979148019157321</v>
+        <v>1.979148019157279</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.9922985617889282</v>
+        <v>0.992298561788914</v>
       </c>
       <c r="K18">
-        <v>2.749473294797866</v>
+        <v>2.749473294797895</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.750660489402378</v>
+        <v>3.750660489402605</v>
       </c>
       <c r="C19">
-        <v>0.6911436253402599</v>
+        <v>0.6911436253407146</v>
       </c>
       <c r="D19">
-        <v>0.04306309167101574</v>
+        <v>0.04306309167075284</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.351517375854911</v>
+        <v>3.351517375854883</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1096,13 +1096,13 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.917572182122512</v>
+        <v>3.917572182122342</v>
       </c>
       <c r="C20">
-        <v>0.7211911890792067</v>
+        <v>0.7211911890792635</v>
       </c>
       <c r="D20">
-        <v>0.04388179062451769</v>
+        <v>0.04388179062453901</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>2.03772330142246</v>
+        <v>2.037723301422403</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1123,7 +1123,7 @@
         <v>1.026195070263583</v>
       </c>
       <c r="K20">
-        <v>2.854110221339198</v>
+        <v>2.854110221339141</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1134,25 +1134,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.49342996045624</v>
+        <v>4.493429960456297</v>
       </c>
       <c r="C21">
-        <v>0.8243904528106896</v>
+        <v>0.824390452810178</v>
       </c>
       <c r="D21">
-        <v>0.04697156077793352</v>
+        <v>0.0469715607777772</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.968194158643314</v>
+        <v>3.968194158643342</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>2.301295706758964</v>
+        <v>2.301295706758992</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1161,7 +1161,7 @@
         <v>1.176208378855407</v>
       </c>
       <c r="K21">
-        <v>3.326936593846199</v>
+        <v>3.326936593846213</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1172,10 +1172,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.883394738675463</v>
+        <v>4.883394738675406</v>
       </c>
       <c r="C22">
-        <v>0.8938370375908278</v>
+        <v>0.8938370375913394</v>
       </c>
       <c r="D22">
         <v>0.04929689081475885</v>
@@ -1190,16 +1190,16 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2.483384115520607</v>
+        <v>2.483384115520622</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>1.277648885349549</v>
+        <v>1.277648885349535</v>
       </c>
       <c r="K22">
-        <v>3.656201626795934</v>
+        <v>3.656201626795877</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1210,34 +1210,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.673847335627954</v>
+        <v>4.67384733562767</v>
       </c>
       <c r="C23">
-        <v>0.8565660758155502</v>
+        <v>0.8565660758146123</v>
       </c>
       <c r="D23">
-        <v>0.04802395894094502</v>
+        <v>0.04802395894102318</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.120064666005874</v>
+        <v>4.120064666005845</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>2.385188836176411</v>
+        <v>2.385188836176425</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>1.223155345128589</v>
+        <v>1.223155345128603</v>
       </c>
       <c r="K23">
-        <v>3.478325140612569</v>
+        <v>3.478325140612583</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1248,10 +1248,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.908354982072069</v>
+        <v>3.90835498207224</v>
       </c>
       <c r="C24">
-        <v>0.7195334414539616</v>
+        <v>0.7195334414544163</v>
       </c>
       <c r="D24">
         <v>0.04383567582400616</v>
@@ -1260,13 +1260,13 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.481236385160003</v>
+        <v>3.481236385160031</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>2.033558395960569</v>
+        <v>2.03355839596054</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>1.023791969221634</v>
       </c>
       <c r="K24">
-        <v>2.846665990011871</v>
+        <v>2.846665990011829</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1286,13 +1286,13 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.126681946213523</v>
+        <v>3.126681946213466</v>
       </c>
       <c r="C25">
-        <v>0.5783088374413126</v>
+        <v>0.5783088374410852</v>
       </c>
       <c r="D25">
-        <v>0.0403129575456731</v>
+        <v>0.04031295754555941</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1310,10 +1310,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.8197823379700182</v>
+        <v>0.8197823379700111</v>
       </c>
       <c r="K25">
-        <v>2.228736995817314</v>
+        <v>2.228736995817357</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_51/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_51/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.576425990837492</v>
+        <v>2.554714147060849</v>
       </c>
       <c r="C2">
-        <v>0.4781696545049954</v>
+        <v>0.4700735317642568</v>
       </c>
       <c r="D2">
-        <v>0.03830695898990655</v>
+        <v>0.04062945269863505</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.409040848048974</v>
+        <v>2.418321792401159</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0007742797618152813</v>
       </c>
       <c r="H2">
-        <v>1.451713303833259</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.461479132996445</v>
       </c>
       <c r="J2">
-        <v>0.6759295098384044</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>1.808865436275227</v>
+        <v>0.6690563435438293</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>1.801672996694634</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.214426375005587</v>
+        <v>2.195811469724219</v>
       </c>
       <c r="C3">
-        <v>0.411970488370514</v>
+        <v>0.4047519404095681</v>
       </c>
       <c r="D3">
-        <v>0.03721432419989412</v>
+        <v>0.03969408402234009</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.128209734840951</v>
+        <v>2.141057570429993</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0007835910460117757</v>
       </c>
       <c r="H3">
-        <v>1.30143819250722</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1.313299980979153</v>
       </c>
       <c r="J3">
-        <v>0.5811859742782133</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>1.539124947587695</v>
+        <v>0.5752360003669921</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>1.533189121206192</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.99622431465869</v>
+        <v>1.979494690262612</v>
       </c>
       <c r="C4">
-        <v>0.3719421168111978</v>
+        <v>0.3652663685698769</v>
       </c>
       <c r="D4">
-        <v>0.03664872044232581</v>
+        <v>0.03922390367957007</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.961622267398823</v>
+        <v>1.97663426114741</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.000789417546196101</v>
       </c>
       <c r="H4">
-        <v>1.212822508254945</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1.225952586417321</v>
       </c>
       <c r="J4">
-        <v>0.5240357729882206</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>1.378965718307924</v>
+        <v>0.5186504820076721</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>1.3737445444754</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.908157348784897</v>
+        <v>1.892194330337588</v>
       </c>
       <c r="C5">
-        <v>0.3557588946371482</v>
+        <v>0.3493057534961395</v>
       </c>
       <c r="D5">
-        <v>0.03644132263021049</v>
+        <v>0.03905521836131243</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.895017637670946</v>
+        <v>1.910907864771687</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.0007918222720853576</v>
       </c>
       <c r="H5">
-        <v>1.177515257432347</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1.191159261172942</v>
       </c>
       <c r="J5">
-        <v>0.5009605844904783</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>1.314839369485668</v>
+        <v>0.4958055023111854</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>1.309898008731963</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.893580739330275</v>
+        <v>1.877744978861728</v>
       </c>
       <c r="C6">
-        <v>0.3530787213826727</v>
+        <v>0.3466626404143653</v>
       </c>
       <c r="D6">
-        <v>0.03640818808231217</v>
+        <v>0.03902850452773876</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.884030236723547</v>
+        <v>1.900066147024916</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.0007922234884231263</v>
       </c>
       <c r="H6">
-        <v>1.171697984270821</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1.185427196063316</v>
       </c>
       <c r="J6">
-        <v>0.4971407180391481</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>1.304253832392973</v>
+        <v>0.4920238845898481</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>1.299358319468553</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.995033373937304</v>
+        <v>1.978314092045707</v>
       </c>
       <c r="C7">
-        <v>0.3717233767192738</v>
+        <v>0.3650506244074165</v>
       </c>
       <c r="D7">
-        <v>0.03664583407304889</v>
+        <v>0.03922153996443356</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.960719061274361</v>
+        <v>1.975742910620568</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0007894498505470927</v>
       </c>
       <c r="H7">
-        <v>1.212343227748875</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1.22548024652734</v>
       </c>
       <c r="J7">
-        <v>0.523723760148826</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>1.37809655914451</v>
+        <v>0.5183415726788638</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>1.372879201751246</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.450655273772043</v>
+        <v>2.430016212060252</v>
       </c>
       <c r="C8">
-        <v>0.4551988663696704</v>
+        <v>0.4474047751349985</v>
       </c>
       <c r="D8">
-        <v>0.03790619012093188</v>
+        <v>0.04028321892887021</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.310877267249936</v>
+        <v>2.321395304581287</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0007774694430101398</v>
       </c>
       <c r="H8">
-        <v>1.39906709536784</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1.409560634269681</v>
       </c>
       <c r="J8">
-        <v>0.6430220915929468</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>1.714574016526683</v>
+        <v>0.6364681067961158</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>1.707828601590606</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.385326429165616</v>
+        <v>3.356737509132643</v>
       </c>
       <c r="C9">
-        <v>0.6251746997141368</v>
+        <v>0.6151911302585802</v>
       </c>
       <c r="D9">
-        <v>0.04139292664953587</v>
+        <v>0.04336514930486857</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.053677033214427</v>
+        <v>3.054998096627173</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0007546930830628629</v>
       </c>
       <c r="H9">
-        <v>1.80016925965856</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1.805233802380627</v>
       </c>
       <c r="J9">
-        <v>0.8873317030066659</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>2.430332757382217</v>
+        <v>0.8784276209377992</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>2.419969865333059</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.111961880091769</v>
+        <v>4.077131853937203</v>
       </c>
       <c r="C10">
-        <v>0.7561102232289727</v>
+        <v>0.7444866522981783</v>
       </c>
       <c r="D10">
-        <v>0.04487890512542947</v>
+        <v>0.04653361277693335</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.649706108395691</v>
+        <v>3.643776228494687</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0007381478439825277</v>
       </c>
       <c r="H10">
-        <v>2.12596320710783</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>2.126717613490797</v>
       </c>
       <c r="J10">
-        <v>1.076861956929719</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>3.012001080297296</v>
+        <v>1.066137504528086</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>2.998277618676696</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.455375804686298</v>
+        <v>4.417544434908962</v>
       </c>
       <c r="C11">
-        <v>0.817594008258169</v>
+        <v>0.8052067977354227</v>
       </c>
       <c r="D11">
-        <v>0.04675472677276815</v>
+        <v>0.04825730075242518</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.936260970582026</v>
+        <v>3.926840919663107</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0007305919432547547</v>
       </c>
       <c r="H11">
-        <v>2.283679015320942</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>2.282349606826017</v>
       </c>
       <c r="J11">
-        <v>1.166302882484658</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>3.295208689855329</v>
+        <v>1.154710843411124</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>3.27969277469775</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.587706383859199</v>
+        <v>4.548706457729565</v>
       </c>
       <c r="C12">
-        <v>0.841213424549295</v>
+        <v>0.8285333596242026</v>
       </c>
       <c r="D12">
-        <v>0.04751646391294173</v>
+        <v>0.0489599448932907</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.047456735317212</v>
+        <v>4.036677875348119</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0007277191375341409</v>
       </c>
       <c r="H12">
-        <v>2.345057676504538</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2.342915381217665</v>
       </c>
       <c r="J12">
-        <v>1.200743597733094</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>3.405844057695163</v>
+        <v>1.188815169250532</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>3.389597635184302</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.559096912994676</v>
+        <v>4.520350247375973</v>
       </c>
       <c r="C13">
-        <v>0.8361104959402041</v>
+        <v>0.823493687394631</v>
       </c>
       <c r="D13">
-        <v>0.04734994388970648</v>
+        <v>0.04880622476184016</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.02338089645184</v>
+        <v>4.012896516202687</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0007283384952206739</v>
       </c>
       <c r="H13">
-        <v>2.331759829826623</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2.32979377901286</v>
       </c>
       <c r="J13">
-        <v>1.193298797695945</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>3.381852503843334</v>
+        <v>1.181443207513098</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>3.365765987256268</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.466214039353758</v>
+        <v>4.428287232566902</v>
       </c>
       <c r="C14">
-        <v>0.8195300547230033</v>
+        <v>0.8071188322124669</v>
       </c>
       <c r="D14">
-        <v>0.04681630112999358</v>
+        <v>0.04831404576834331</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.94535230811465</v>
+        <v>3.935821276824953</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.000730355874872135</v>
       </c>
       <c r="H14">
-        <v>2.288693638107461</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>2.287297871078806</v>
       </c>
       <c r="J14">
-        <v>1.169124190589685</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>3.304237999479525</v>
+        <v>1.157504648676181</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>3.288663119803587</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.409633036600837</v>
+        <v>4.372203945484557</v>
       </c>
       <c r="C15">
-        <v>0.8094199071800006</v>
+        <v>0.7971340940133302</v>
       </c>
       <c r="D15">
-        <v>0.04649645166728078</v>
+        <v>0.04801938786877002</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.897922531276947</v>
+        <v>3.888970282738796</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0007315898296040439</v>
       </c>
       <c r="H15">
-        <v>2.262539465679552</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2.261489704412028</v>
       </c>
       <c r="J15">
-        <v>1.154394541936028</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>3.257162875177883</v>
+        <v>1.142918488419639</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>3.241894151730989</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.089813159612959</v>
+        <v>4.05517532836825</v>
       </c>
       <c r="C16">
-        <v>0.7521357078774713</v>
+        <v>0.7405615960314549</v>
       </c>
       <c r="D16">
-        <v>0.04476292980494634</v>
+        <v>0.04642739504641469</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.631327091214757</v>
+        <v>3.62562068519199</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0007386404571119565</v>
       </c>
       <c r="H16">
-        <v>2.115870729992423</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>2.116758359593419</v>
       </c>
       <c r="J16">
-        <v>1.071090368737558</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>2.993924262332541</v>
+        <v>1.060421648281164</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>2.980311563671478</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.897192370899859</v>
+        <v>3.864219914079399</v>
       </c>
       <c r="C17">
-        <v>0.7175255617855214</v>
+        <v>0.7063828089880815</v>
       </c>
       <c r="D17">
-        <v>0.04377996927561156</v>
+        <v>0.04552905033727228</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.472031889784034</v>
+        <v>3.468261584920157</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0007429535166963844</v>
       </c>
       <c r="H17">
-        <v>2.028516772064791</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>2.030557580772836</v>
       </c>
       <c r="J17">
-        <v>1.020881581212933</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>2.837655639065261</v>
+        <v>1.010696653622148</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>2.824982936401824</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.787581933091133</v>
+        <v>3.755552728222938</v>
       </c>
       <c r="C18">
-        <v>0.697795304429377</v>
+        <v>0.6868990839459741</v>
       </c>
       <c r="D18">
-        <v>0.04324120016676858</v>
+        <v>0.04503825342277423</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.38182797826201</v>
+        <v>3.379153930873798</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0007454320254806406</v>
       </c>
       <c r="H18">
-        <v>1.979148019157279</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1.981840966585992</v>
       </c>
       <c r="J18">
-        <v>0.992298561788914</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>2.749473294797895</v>
+        <v>0.9823883418520012</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>2.737317488306587</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.750660489402605</v>
+        <v>3.718948366253926</v>
       </c>
       <c r="C19">
-        <v>0.6911436253407146</v>
+        <v>0.6803306370971995</v>
       </c>
       <c r="D19">
-        <v>0.04306309167075284</v>
+        <v>0.04487627770165403</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.351517375854883</v>
+        <v>3.349211775300915</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0007462710185400555</v>
       </c>
       <c r="H19">
-        <v>1.962575049329629</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1.965487045089091</v>
       </c>
       <c r="J19">
-        <v>0.9826686912998639</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>2.719889140221184</v>
+        <v>0.9728509284650215</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>2.707904609405546</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.917572182122342</v>
+        <v>3.884424012169291</v>
       </c>
       <c r="C20">
-        <v>0.7211911890792635</v>
+        <v>0.7100026877937182</v>
       </c>
       <c r="D20">
-        <v>0.04388179062453901</v>
+        <v>0.0456219386839507</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.488839246205004</v>
+        <v>3.484864695421749</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0007424946651286568</v>
       </c>
       <c r="H20">
-        <v>2.037723301422403</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2.039642543806835</v>
       </c>
       <c r="J20">
-        <v>1.026195070263583</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>2.854110221339141</v>
+        <v>1.01595902409413</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>2.841339998779787</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.493429960456297</v>
+        <v>4.455263292529139</v>
       </c>
       <c r="C21">
-        <v>0.824390452810178</v>
+        <v>0.8119189551023283</v>
       </c>
       <c r="D21">
-        <v>0.0469715607777772</v>
+        <v>0.04845717030595864</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.968194158643342</v>
+        <v>3.958384204534468</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0007297637014009054</v>
       </c>
       <c r="H21">
-        <v>2.301295706758992</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2.29973313678461</v>
       </c>
       <c r="J21">
-        <v>1.176208378855407</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>3.326936593846213</v>
+        <v>1.164519737477605</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>3.311212974365915</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.883394738675406</v>
+        <v>4.841755430524245</v>
       </c>
       <c r="C22">
-        <v>0.8938370375913394</v>
+        <v>0.8805048282042094</v>
       </c>
       <c r="D22">
-        <v>0.04929689081475885</v>
+        <v>0.05060723673076239</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.297415355130681</v>
+        <v>4.28356834624725</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.000721371302381497</v>
       </c>
       <c r="H22">
-        <v>2.483384115520622</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>2.479403028745182</v>
       </c>
       <c r="J22">
-        <v>1.277648885349535</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>3.656201626795877</v>
+        <v>1.264963595845686</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>3.638235529183405</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.67384733562767</v>
+        <v>4.6340826975254</v>
       </c>
       <c r="C23">
-        <v>0.8565660758146123</v>
+        <v>0.8436957306256545</v>
       </c>
       <c r="D23">
-        <v>0.04802395894102318</v>
+        <v>0.04942881662238818</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.120064666005845</v>
+        <v>4.108396699092395</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0007258599336555449</v>
       </c>
       <c r="H23">
-        <v>2.385188836176425</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>2.382514158394628</v>
       </c>
       <c r="J23">
-        <v>1.223155345128603</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>3.478325140612583</v>
+        <v>1.211007210278439</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>3.4615905160788</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.90835498207224</v>
+        <v>3.875286295619844</v>
       </c>
       <c r="C24">
-        <v>0.7195334414544163</v>
+        <v>0.7083656275298154</v>
       </c>
       <c r="D24">
-        <v>0.04383567582400616</v>
+        <v>0.04557986456812557</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.481236385160031</v>
+        <v>3.477354225703209</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0007427021149251236</v>
       </c>
       <c r="H24">
-        <v>2.03355839596054</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>2.035532631808096</v>
       </c>
       <c r="J24">
-        <v>1.023791969221634</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>2.846665990011829</v>
+        <v>1.013579044294232</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>2.833939928490068</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.126681946213466</v>
+        <v>3.10029325525079</v>
       </c>
       <c r="C25">
-        <v>0.5783088374410852</v>
+        <v>0.5689199928660571</v>
       </c>
       <c r="D25">
-        <v>0.04031295754555941</v>
+        <v>0.04239729459035857</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.845216131913645</v>
+        <v>2.849088498972492</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0007608011122901455</v>
       </c>
       <c r="H25">
-        <v>1.68700439043738</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1.693579299535116</v>
       </c>
       <c r="J25">
-        <v>0.8197823379700111</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>2.228736995817357</v>
+        <v>0.8115251718679559</v>
       </c>
       <c r="L25">
+        <v>2.219447019666063</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_51/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_51/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.554714147060849</v>
+        <v>2.37275356994661</v>
       </c>
       <c r="C2">
-        <v>0.4700735317642568</v>
+        <v>0.5371341306135093</v>
       </c>
       <c r="D2">
-        <v>0.04062945269863505</v>
+        <v>0.02682612640906967</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2.418321792401159</v>
+        <v>1.994244399640905</v>
       </c>
       <c r="G2">
-        <v>0.0007742797618152813</v>
+        <v>0.0007790502980819374</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.461479132996445</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.6690563435438293</v>
+        <v>0.6504431893618658</v>
       </c>
       <c r="L2">
-        <v>1.801672996694634</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>2.815515790863316</v>
+      </c>
+      <c r="N2">
+        <v>1.242492622688914</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.195811469724219</v>
+        <v>2.045468704416521</v>
       </c>
       <c r="C3">
-        <v>0.4047519404095681</v>
+        <v>0.4626532371158589</v>
       </c>
       <c r="D3">
-        <v>0.03969408402234009</v>
+        <v>0.02770660647243162</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>2.141057570429993</v>
+        <v>1.778265523977637</v>
       </c>
       <c r="G3">
-        <v>0.0007835910460117757</v>
+        <v>0.0007875792526290951</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.313299980979153</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.5752360003669921</v>
+        <v>0.5602016085082724</v>
       </c>
       <c r="L3">
-        <v>1.533189121206192</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>2.390295992187632</v>
+      </c>
+      <c r="N3">
+        <v>1.23514848977392</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.979494690262612</v>
+        <v>1.847781406801005</v>
       </c>
       <c r="C4">
-        <v>0.3652663685698769</v>
+        <v>0.417597828571644</v>
       </c>
       <c r="D4">
-        <v>0.03922390367957007</v>
+        <v>0.02830704705777976</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.97663426114741</v>
+        <v>1.650148029792348</v>
       </c>
       <c r="G4">
-        <v>0.000789417546196101</v>
+        <v>0.0007929308219973841</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.225952586417321</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5186504820076721</v>
+        <v>0.5056712207241887</v>
       </c>
       <c r="L4">
-        <v>1.3737445444754</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>2.139421524853489</v>
+      </c>
+      <c r="N4">
+        <v>1.23298552196313</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.892194330337588</v>
+        <v>1.767923361754356</v>
       </c>
       <c r="C5">
-        <v>0.3493057534961395</v>
+        <v>0.3993792542747485</v>
       </c>
       <c r="D5">
-        <v>0.03905521836131243</v>
+        <v>0.02856530571472149</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.910907864771687</v>
+        <v>1.598936986948317</v>
       </c>
       <c r="G5">
-        <v>0.0007918222720853576</v>
+        <v>0.0007951428486872211</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.191159261172942</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4958055023111854</v>
+        <v>0.4836371133254147</v>
       </c>
       <c r="L5">
-        <v>1.309898008731963</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>2.039300549637275</v>
+      </c>
+      <c r="N5">
+        <v>1.232642822679992</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.877744978861728</v>
+        <v>1.754702031336848</v>
       </c>
       <c r="C6">
-        <v>0.3466626404143653</v>
+        <v>0.396361868263341</v>
       </c>
       <c r="D6">
-        <v>0.03902850452773876</v>
+        <v>0.02860896994330275</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.900066147024916</v>
+        <v>1.590490089428613</v>
       </c>
       <c r="G6">
-        <v>0.0007922234884231263</v>
+        <v>0.0007955121037341988</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.185427196063316</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4920238845898481</v>
+        <v>0.4799887710749644</v>
       </c>
       <c r="L6">
-        <v>1.299358319468553</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>2.022791139992577</v>
+      </c>
+      <c r="N6">
+        <v>1.232617063001854</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.978314092045707</v>
+        <v>1.846701725451908</v>
       </c>
       <c r="C7">
-        <v>0.3650506244074165</v>
+        <v>0.4173515874138616</v>
       </c>
       <c r="D7">
-        <v>0.03922153996443356</v>
+        <v>0.02831047686203547</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.975742910620568</v>
+        <v>1.649453504387282</v>
       </c>
       <c r="G7">
-        <v>0.0007894498505470927</v>
+        <v>0.0007929605248252664</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.22548024652734</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5183415726788638</v>
+        <v>0.5053733438937371</v>
       </c>
       <c r="L7">
-        <v>1.372879201751246</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>2.138063255663269</v>
+      </c>
+      <c r="N7">
+        <v>1.232978782563407</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.430016212060252</v>
+        <v>2.259151554114283</v>
       </c>
       <c r="C8">
-        <v>0.4474047751349985</v>
+        <v>0.5112949731521041</v>
       </c>
       <c r="D8">
-        <v>0.04028321892887021</v>
+        <v>0.02711635135429091</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>2.321395304581287</v>
+        <v>1.918757935849371</v>
       </c>
       <c r="G8">
-        <v>0.0007774694430101398</v>
+        <v>0.0007819687730545065</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.409560634269681</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.6364681067961158</v>
+        <v>0.619124478419657</v>
       </c>
       <c r="L8">
-        <v>1.707828601590606</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>2.666482030681635</v>
+      </c>
+      <c r="N8">
+        <v>1.239440630921138</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.356737509132643</v>
+        <v>3.100008678159725</v>
       </c>
       <c r="C9">
-        <v>0.6151911302585802</v>
+        <v>0.7023134673120808</v>
       </c>
       <c r="D9">
-        <v>0.04336514930486857</v>
+        <v>0.02532797258743713</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>3.054998096627173</v>
+        <v>2.48934881329987</v>
       </c>
       <c r="G9">
-        <v>0.0007546930830628629</v>
+        <v>0.0007612009893261083</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.805233802380627</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.8784276209377992</v>
+        <v>0.8508570781406348</v>
       </c>
       <c r="L9">
-        <v>2.419969865333059</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>3.809187278612072</v>
+      </c>
+      <c r="N9">
+        <v>1.273400230170026</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.077131853937203</v>
+        <v>3.747118380749725</v>
       </c>
       <c r="C10">
-        <v>0.7444866522981783</v>
+        <v>0.8490816807856731</v>
       </c>
       <c r="D10">
-        <v>0.04653361277693335</v>
+        <v>0.02448614995404697</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>3.643776228494687</v>
+        <v>2.945630100970106</v>
       </c>
       <c r="G10">
-        <v>0.0007381478439825277</v>
+        <v>0.0007462161420430874</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>2.126717613490797</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.066137504528086</v>
+        <v>1.029110039522209</v>
       </c>
       <c r="L10">
-        <v>2.998277618676696</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>4.759966374025666</v>
+      </c>
+      <c r="N10">
+        <v>1.315759973005243</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.417544434908962</v>
+        <v>4.050493501051108</v>
       </c>
       <c r="C11">
-        <v>0.8052067977354227</v>
+        <v>0.9178533734373957</v>
       </c>
       <c r="D11">
-        <v>0.04825730075242518</v>
+        <v>0.02424573783052253</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.926840919663107</v>
+        <v>3.164359949429098</v>
       </c>
       <c r="G11">
-        <v>0.0007305919432547547</v>
+        <v>0.0007393989449745089</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>2.282349606826017</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.154710843411124</v>
+        <v>1.112663837486423</v>
       </c>
       <c r="L11">
-        <v>3.27969277469775</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>5.231666711451894</v>
+      </c>
+      <c r="N11">
+        <v>1.340073527848688</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.548706457729565</v>
+        <v>4.16693017535323</v>
       </c>
       <c r="C12">
-        <v>0.8285333596242026</v>
+        <v>0.9442442279622867</v>
       </c>
       <c r="D12">
-        <v>0.0489599448932907</v>
+        <v>0.02417963431322789</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>4.036677875348119</v>
+        <v>3.249117747218918</v>
       </c>
       <c r="G12">
-        <v>0.0007277191375341409</v>
+        <v>0.0007368109080002265</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>2.342915381217665</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.188815169250532</v>
+        <v>1.14473043687677</v>
       </c>
       <c r="L12">
-        <v>3.389597635184302</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>5.417729418499107</v>
+      </c>
+      <c r="N12">
+        <v>1.350141078609965</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.520350247375973</v>
+        <v>4.14177964759233</v>
       </c>
       <c r="C13">
-        <v>0.823493687394631</v>
+        <v>0.9385439222452305</v>
       </c>
       <c r="D13">
-        <v>0.04880622476184016</v>
+        <v>0.02419267843406203</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>4.012896516202687</v>
+        <v>3.230771894474287</v>
       </c>
       <c r="G13">
-        <v>0.0007283384952206739</v>
+        <v>0.0007373686984717934</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>2.32979377901286</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.181443207513098</v>
+        <v>1.137804066984188</v>
       </c>
       <c r="L13">
-        <v>3.365765987256268</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>5.377290865939415</v>
+      </c>
+      <c r="N13">
+        <v>1.347932075697244</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.428287232566902</v>
+        <v>4.060039994217391</v>
       </c>
       <c r="C14">
-        <v>0.8071188322124669</v>
+        <v>0.9200172010608014</v>
       </c>
       <c r="D14">
-        <v>0.04831404576834331</v>
+        <v>0.02423977009232203</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.935821276824953</v>
+        <v>3.171292244875247</v>
       </c>
       <c r="G14">
-        <v>0.000730355874872135</v>
+        <v>0.0007391861989670959</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>2.287297871078806</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.157504648676181</v>
+        <v>1.115292969505305</v>
       </c>
       <c r="L14">
-        <v>3.288663119803587</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>5.246812469790243</v>
+      </c>
+      <c r="N14">
+        <v>1.340883655294121</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.372203945484557</v>
+        <v>4.010183122937008</v>
       </c>
       <c r="C15">
-        <v>0.7971340940133302</v>
+        <v>0.9087163850151114</v>
       </c>
       <c r="D15">
-        <v>0.04801938786877002</v>
+        <v>0.02427201395373402</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.888970282738796</v>
+        <v>3.135121336549304</v>
       </c>
       <c r="G15">
-        <v>0.0007315898296040439</v>
+        <v>0.0007402984029918347</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>2.261489704412028</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.142918488419639</v>
+        <v>1.101562174886865</v>
       </c>
       <c r="L15">
-        <v>3.241894151730989</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>5.167923903461855</v>
+      </c>
+      <c r="N15">
+        <v>1.336682917977882</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.05517532836825</v>
+        <v>3.727494530298429</v>
       </c>
       <c r="C16">
-        <v>0.7405615960314549</v>
+        <v>0.8446325712546354</v>
       </c>
       <c r="D16">
-        <v>0.04642739504641469</v>
+        <v>0.02450508387395089</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>3.62562068519199</v>
+        <v>2.931586435871537</v>
       </c>
       <c r="G16">
-        <v>0.0007386404571119565</v>
+        <v>0.0007466611370562017</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>2.116758359593419</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.060421648281164</v>
+        <v>1.023705103885689</v>
       </c>
       <c r="L16">
-        <v>2.980311563671478</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>4.730068976698789</v>
+      </c>
+      <c r="N16">
+        <v>1.3142833886006</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.864219914079399</v>
+        <v>3.55655187842234</v>
       </c>
       <c r="C17">
-        <v>0.7063828089880815</v>
+        <v>0.8058728154877599</v>
       </c>
       <c r="D17">
-        <v>0.04552905033727228</v>
+        <v>0.02468739358508998</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>3.468261584920157</v>
+        <v>2.809794180973171</v>
       </c>
       <c r="G17">
-        <v>0.0007429535166963844</v>
+        <v>0.000750560232682522</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>2.030557580772836</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.010696653622148</v>
+        <v>0.9766214202320356</v>
       </c>
       <c r="L17">
-        <v>2.824982936401824</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>4.472601640889664</v>
+      </c>
+      <c r="N17">
+        <v>1.301920837648211</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.755552728222938</v>
+        <v>3.459059561327422</v>
       </c>
       <c r="C18">
-        <v>0.6868990839459741</v>
+        <v>0.7837639473164586</v>
       </c>
       <c r="D18">
-        <v>0.04503825342277423</v>
+        <v>0.02480534854759853</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>3.379153930873798</v>
+        <v>2.740770626308318</v>
       </c>
       <c r="G18">
-        <v>0.0007454320254806406</v>
+        <v>0.0007528033034153368</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.981840966585992</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.9823883418520012</v>
+        <v>0.9497672650985152</v>
       </c>
       <c r="L18">
-        <v>2.737317488306587</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>4.328065621671868</v>
+      </c>
+      <c r="N18">
+        <v>1.29527535885336</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.718948366253926</v>
+        <v>3.426185537346839</v>
       </c>
       <c r="C19">
-        <v>0.6803306370971995</v>
+        <v>0.7763083135269255</v>
       </c>
       <c r="D19">
-        <v>0.04487627770165403</v>
+        <v>0.0248474174896991</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>3.349211775300915</v>
+        <v>2.717568209286668</v>
       </c>
       <c r="G19">
-        <v>0.0007462710185400555</v>
+        <v>0.0007535630112065483</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.965487045089091</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.9728509284650215</v>
+        <v>0.9407119154313932</v>
       </c>
       <c r="L19">
-        <v>2.707904609405546</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>4.279692643139867</v>
+      </c>
+      <c r="N19">
+        <v>1.293101562536108</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.884424012169291</v>
+        <v>3.574661429008245</v>
       </c>
       <c r="C20">
-        <v>0.7100026877937182</v>
+        <v>0.8099793355698353</v>
       </c>
       <c r="D20">
-        <v>0.0456219386839507</v>
+        <v>0.02466660247285191</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>3.484864695421749</v>
+        <v>2.822650633203722</v>
       </c>
       <c r="G20">
-        <v>0.0007424946651286568</v>
+        <v>0.0007501451660435497</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>2.039642543806835</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.01595902409413</v>
+        <v>0.9816095673088796</v>
       </c>
       <c r="L20">
-        <v>2.841339998779787</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>4.499630631259805</v>
+      </c>
+      <c r="N20">
+        <v>1.303187830013982</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.455263292529139</v>
+        <v>4.084004402833216</v>
       </c>
       <c r="C21">
-        <v>0.8119189551023283</v>
+        <v>0.9254489619886215</v>
       </c>
       <c r="D21">
-        <v>0.04845717030595864</v>
+        <v>0.02422522016696504</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.958384204534468</v>
+        <v>3.188707557850677</v>
       </c>
       <c r="G21">
-        <v>0.0007297637014009054</v>
+        <v>0.0007386525914512276</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>2.29973313678461</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.164519737477605</v>
+        <v>1.121892811115089</v>
       </c>
       <c r="L21">
-        <v>3.311212974365915</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>5.284917647102503</v>
+      </c>
+      <c r="N21">
+        <v>1.342929354436791</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.841755430524245</v>
+        <v>4.426110058225674</v>
       </c>
       <c r="C22">
-        <v>0.8805048282042094</v>
+        <v>1.002981882622237</v>
       </c>
       <c r="D22">
-        <v>0.05060723673076239</v>
+        <v>0.0240850919914557</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>4.28356834624725</v>
+        <v>3.439400263250604</v>
       </c>
       <c r="G22">
-        <v>0.000721371302381497</v>
+        <v>0.0007310992271352143</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>2.479403028745182</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.264963595845686</v>
+        <v>1.216105545721007</v>
       </c>
       <c r="L22">
-        <v>3.638235529183405</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>5.84287789460879</v>
+      </c>
+      <c r="N22">
+        <v>1.374007015500453</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.6340826975254</v>
+        <v>4.242579504202013</v>
       </c>
       <c r="C23">
-        <v>0.8436957306256545</v>
+        <v>0.9613894424111322</v>
       </c>
       <c r="D23">
-        <v>0.04942881662238818</v>
+        <v>0.02414451141394025</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>4.108396699092395</v>
+        <v>3.304426055599805</v>
       </c>
       <c r="G23">
-        <v>0.0007258599336555449</v>
+        <v>0.0007351370727997821</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>2.382514158394628</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.211007210278439</v>
+        <v>1.165563774800958</v>
       </c>
       <c r="L23">
-        <v>3.4615905160788</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>5.540211530274235</v>
+      </c>
+      <c r="N23">
+        <v>1.356899533634902</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.875286295619844</v>
+        <v>3.566471675513299</v>
       </c>
       <c r="C24">
-        <v>0.7083656275298154</v>
+        <v>0.8081222383065096</v>
       </c>
       <c r="D24">
-        <v>0.04557986456812557</v>
+        <v>0.02467596151690188</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>3.477354225703209</v>
+        <v>2.816835150968956</v>
       </c>
       <c r="G24">
-        <v>0.0007427021149251236</v>
+        <v>0.0007503328126320938</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>2.035532631808096</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.013579044294232</v>
+        <v>0.9793537619831056</v>
       </c>
       <c r="L24">
-        <v>2.833939928490068</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>4.4874000953875</v>
+      </c>
+      <c r="N24">
+        <v>1.302613593760938</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.10029325525079</v>
+        <v>2.868171545653865</v>
       </c>
       <c r="C25">
-        <v>0.5689199928660571</v>
+        <v>0.6496926790671012</v>
       </c>
       <c r="D25">
-        <v>0.04239729459035857</v>
+        <v>0.02574024657924312</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.849088498972492</v>
+        <v>2.329392830138957</v>
       </c>
       <c r="G25">
-        <v>0.0007608011122901455</v>
+        <v>0.0007667541060899548</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.693579299535116</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.8115251718679559</v>
+        <v>0.7869808785079044</v>
       </c>
       <c r="L25">
-        <v>2.219447019666063</v>
+        <v>0</v>
       </c>
       <c r="M25">
+        <v>3.484571136234862</v>
+      </c>
+      <c r="N25">
+        <v>1.261522469329208</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_51/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_51/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.37275356994661</v>
+        <v>1.266483118879705</v>
       </c>
       <c r="C2">
-        <v>0.5371341306135093</v>
+        <v>0.09459359663167533</v>
       </c>
       <c r="D2">
-        <v>0.02682612640906967</v>
+        <v>0.05152985350055417</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.994244399640905</v>
+        <v>0.7352463629283577</v>
       </c>
       <c r="G2">
-        <v>0.0007790502980819374</v>
+        <v>0.647821352346881</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.4686877452118381</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.5099994359862166</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.6504431893618658</v>
+        <v>1.08907474240462</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.4012925995253198</v>
       </c>
       <c r="M2">
-        <v>2.815515790863316</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>1.242492622688914</v>
+        <v>0.8743436701875993</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.045468704416521</v>
+        <v>1.100544770164817</v>
       </c>
       <c r="C3">
-        <v>0.4626532371158589</v>
+        <v>0.08818797511357701</v>
       </c>
       <c r="D3">
-        <v>0.02770660647243162</v>
+        <v>0.04850030460943344</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.778265523977637</v>
+        <v>0.6919403742310024</v>
       </c>
       <c r="G3">
-        <v>0.0007875792526290951</v>
+        <v>0.6133717507409955</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.4593927313810582</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.4990322192746603</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.5602016085082724</v>
+        <v>0.9444145221884241</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.3539112007378975</v>
       </c>
       <c r="M3">
-        <v>2.390295992187632</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.23514848977392</v>
+        <v>0.917944100125343</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.847781406801005</v>
+        <v>0.9992937603074665</v>
       </c>
       <c r="C4">
-        <v>0.417597828571644</v>
+        <v>0.08424840801709621</v>
       </c>
       <c r="D4">
-        <v>0.02830704705777976</v>
+        <v>0.04662787710636351</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.650148029792348</v>
+        <v>0.6666657529713902</v>
       </c>
       <c r="G4">
-        <v>0.0007929308219973841</v>
+        <v>0.5935159342487424</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.4544545417216028</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.4932389717635317</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5056712207241887</v>
+        <v>0.8559959229810374</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.3252507601787471</v>
       </c>
       <c r="M4">
-        <v>2.139421524853489</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1.23298552196313</v>
+        <v>0.9459460621371356</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.767923361754356</v>
+        <v>0.9581710869639437</v>
       </c>
       <c r="C5">
-        <v>0.3993792542747485</v>
+        <v>0.08264054816670097</v>
       </c>
       <c r="D5">
-        <v>0.02856530571472149</v>
+        <v>0.04586167305527411</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.598936986948317</v>
+        <v>0.6566778261100765</v>
       </c>
       <c r="G5">
-        <v>0.0007951428486872211</v>
+        <v>0.5857314573228081</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.4526269699208427</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.4911035816604326</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4836371133254147</v>
+        <v>0.8200473317431261</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.3136701743101895</v>
       </c>
       <c r="M5">
-        <v>2.039300549637275</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>1.232642822679992</v>
+        <v>0.9576582757011209</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.754702031336848</v>
+        <v>0.9513504109793303</v>
       </c>
       <c r="C6">
-        <v>0.396361868263341</v>
+        <v>0.08237339300074353</v>
       </c>
       <c r="D6">
-        <v>0.02860896994330275</v>
+        <v>0.04573425128112873</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.590490089428613</v>
+        <v>0.6550376242291804</v>
       </c>
       <c r="G6">
-        <v>0.0007955121037341988</v>
+        <v>0.5844568504556804</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.452334420864247</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.4907623011210021</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4799887710749644</v>
+        <v>0.8140825635042575</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.3117529149639324</v>
       </c>
       <c r="M6">
-        <v>2.022791139992577</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>1.232617063001854</v>
+        <v>0.9596210339869593</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.846701725451908</v>
+        <v>0.9987386351816667</v>
       </c>
       <c r="C7">
-        <v>0.4173515874138616</v>
+        <v>0.08422673484275833</v>
       </c>
       <c r="D7">
-        <v>0.02831047686203547</v>
+        <v>0.04661755677622281</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.649453504387282</v>
+        <v>0.6665298147956236</v>
       </c>
       <c r="G7">
-        <v>0.0007929605248252664</v>
+        <v>0.5934097317791895</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.4544291572947827</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.4932092747788417</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5053733438937371</v>
+        <v>0.8555107968190896</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.3250941930302389</v>
       </c>
       <c r="M7">
-        <v>2.138063255663269</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>1.232978782563407</v>
+        <v>0.9461028084033032</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.259151554114283</v>
+        <v>1.209121979117157</v>
       </c>
       <c r="C8">
-        <v>0.5112949731521041</v>
+        <v>0.09238577176068929</v>
       </c>
       <c r="D8">
-        <v>0.02711635135429091</v>
+        <v>0.05048775540013395</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.918757935849371</v>
+        <v>0.7200296260231909</v>
       </c>
       <c r="G8">
-        <v>0.0007819687730545065</v>
+        <v>0.6356622723266696</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.4653179055917889</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.5060158169809696</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.619124478419657</v>
+        <v>1.039100541462489</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.3848597503932609</v>
       </c>
       <c r="M8">
-        <v>2.666482030681635</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>1.239440630921138</v>
+        <v>0.8891163977886549</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.100008678159725</v>
+        <v>1.62779943710089</v>
       </c>
       <c r="C9">
-        <v>0.7023134673120808</v>
+        <v>0.1083747286956509</v>
       </c>
       <c r="D9">
-        <v>0.02532797258743713</v>
+        <v>0.05798459315330717</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2.48934881329987</v>
+        <v>0.8362976858907132</v>
       </c>
       <c r="G9">
-        <v>0.0007612009893261083</v>
+        <v>0.729721217519014</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.4931848927314775</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.5391271044936161</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.8508570781406348</v>
+        <v>1.403235281951197</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.5059627390974697</v>
       </c>
       <c r="M9">
-        <v>3.809187278612072</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>1.273400230170026</v>
+        <v>0.7875325908933846</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.747118380749725</v>
+        <v>1.940747489103899</v>
       </c>
       <c r="C10">
-        <v>0.8490816807856731</v>
+        <v>0.1201772322416588</v>
       </c>
       <c r="D10">
-        <v>0.02448614995404697</v>
+        <v>0.06344382825901818</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>2.945630100970106</v>
+        <v>0.930008222302618</v>
       </c>
       <c r="G10">
-        <v>0.0007462161420430874</v>
+        <v>0.8070179306249656</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.518244089805421</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.5691225915007578</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.029110039522209</v>
+        <v>1.674657357667712</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.5980283010090659</v>
       </c>
       <c r="M10">
-        <v>4.759966374025666</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>1.315759973005243</v>
+        <v>0.7196820071856962</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.050493501051108</v>
+        <v>2.084665686021083</v>
       </c>
       <c r="C11">
-        <v>0.9178533734373957</v>
+        <v>0.1255737516669342</v>
       </c>
       <c r="D11">
-        <v>0.02424573783052253</v>
+        <v>0.0659187368404659</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>3.164359949429098</v>
+        <v>0.9747668268597778</v>
       </c>
       <c r="G11">
-        <v>0.0007393989449745089</v>
+        <v>0.8442880521261173</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.5307873919955313</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.5841893662433222</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.112663837486423</v>
+        <v>1.799313020188833</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.6407532977655279</v>
       </c>
       <c r="M11">
-        <v>5.231666711451894</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>1.340073527848688</v>
+        <v>0.6904285341699783</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.16693017535323</v>
+        <v>2.139422154334227</v>
       </c>
       <c r="C12">
-        <v>0.9442442279622867</v>
+        <v>0.127622604472279</v>
       </c>
       <c r="D12">
-        <v>0.02417963431322789</v>
+        <v>0.0668548598792853</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>3.249117747218918</v>
+        <v>0.9920513579798751</v>
       </c>
       <c r="G12">
-        <v>0.0007368109080002265</v>
+        <v>0.8587338059659686</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.5357150080711932</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.5901163490107848</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.14473043687677</v>
+        <v>1.846716853475186</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.6570687392232202</v>
       </c>
       <c r="M12">
-        <v>5.417729418499107</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>1.350141078609965</v>
+        <v>0.6795957436481004</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.14177964759233</v>
+        <v>2.127617335735238</v>
       </c>
       <c r="C13">
-        <v>0.9385439222452305</v>
+        <v>0.1271810883985864</v>
       </c>
       <c r="D13">
-        <v>0.02419267843406203</v>
+        <v>0.06665329405172571</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>3.230771894474287</v>
+        <v>0.988313417370037</v>
       </c>
       <c r="G13">
-        <v>0.0007373686984717934</v>
+        <v>0.8556073809545097</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.5346456303064571</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.5888297287729642</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.137804066984188</v>
+        <v>1.836498230988212</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.6535485977953357</v>
       </c>
       <c r="M13">
-        <v>5.377290865939415</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>1.347932075697244</v>
+        <v>0.6819176698651042</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.060039994217391</v>
+        <v>2.089165163617167</v>
       </c>
       <c r="C14">
-        <v>0.9200172010608014</v>
+        <v>0.1257421974435715</v>
       </c>
       <c r="D14">
-        <v>0.02423977009232203</v>
+        <v>0.06599577277488322</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>3.171292244875247</v>
+        <v>0.9761819378391579</v>
       </c>
       <c r="G14">
-        <v>0.0007391861989670959</v>
+        <v>0.8454696757814872</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.5311891480506432</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.5846724404855337</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.115292969505305</v>
+        <v>1.803208789910087</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.6420927546612489</v>
       </c>
       <c r="M14">
-        <v>5.246812469790243</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>1.340883655294121</v>
+        <v>0.6895323281732502</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.010183122937008</v>
+        <v>2.065646719866152</v>
       </c>
       <c r="C15">
-        <v>0.9087163850151114</v>
+        <v>0.1248615687316175</v>
       </c>
       <c r="D15">
-        <v>0.02427201395373402</v>
+        <v>0.06559288735642355</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>3.135121336549304</v>
+        <v>0.968795643880739</v>
       </c>
       <c r="G15">
-        <v>0.0007402984029918347</v>
+        <v>0.8393042316741628</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.5290955113652558</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.5821553596119529</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.101562174886865</v>
+        <v>1.782844922860448</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.6350939515158842</v>
       </c>
       <c r="M15">
-        <v>5.167923903461855</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>1.336682917977882</v>
+        <v>0.6942288193710304</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.727494530298429</v>
+        <v>1.931376259954334</v>
       </c>
       <c r="C16">
-        <v>0.8446325712546354</v>
+        <v>0.1198252233065702</v>
       </c>
       <c r="D16">
-        <v>0.02450508387395089</v>
+        <v>0.063281928519757</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>2.931586435871537</v>
+        <v>0.92712843669959</v>
       </c>
       <c r="G16">
-        <v>0.0007466611370562017</v>
+        <v>0.8046271030925567</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.5174484817594163</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.5681679812845246</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.023705103885689</v>
+        <v>1.666537087617542</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.5952543650084863</v>
       </c>
       <c r="M16">
-        <v>4.730068976698789</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>1.3142833886006</v>
+        <v>0.7216273226001135</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.55655187842234</v>
+        <v>1.849427683934124</v>
       </c>
       <c r="C17">
-        <v>0.8058728154877599</v>
+        <v>0.1167435570752886</v>
       </c>
       <c r="D17">
-        <v>0.02468739358508998</v>
+        <v>0.06186215228750314</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>2.809794180973171</v>
+        <v>0.9021324128226951</v>
       </c>
       <c r="G17">
-        <v>0.000750560232682522</v>
+        <v>0.7839137390828199</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.5106054709387138</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.5599630572481331</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.9766214202320356</v>
+        <v>1.595509359176447</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.5710405744172675</v>
       </c>
       <c r="M17">
-        <v>4.472601640889664</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>1.301920837648211</v>
+        <v>0.7388572862278338</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.459059561327422</v>
+        <v>1.80243735821216</v>
       </c>
       <c r="C18">
-        <v>0.7837639473164586</v>
+        <v>0.114973564693031</v>
       </c>
       <c r="D18">
-        <v>0.02480534854759853</v>
+        <v>0.06104472204017952</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>2.740770626308318</v>
+        <v>0.8879538950028092</v>
       </c>
       <c r="G18">
-        <v>0.0007528033034153368</v>
+        <v>0.7721964400784032</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.5067763539791059</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.5553765197464955</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.9497672650985152</v>
+        <v>1.554765694296833</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.5571919083655104</v>
       </c>
       <c r="M18">
-        <v>4.328065621671868</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>1.29527535885336</v>
+        <v>0.7489184055411933</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.426185537346839</v>
+        <v>1.786551038056359</v>
       </c>
       <c r="C19">
-        <v>0.7763083135269255</v>
+        <v>0.1143746658945446</v>
       </c>
       <c r="D19">
-        <v>0.0248474174896991</v>
+        <v>0.06076781017392108</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>2.717568209286668</v>
+        <v>0.8831865356769413</v>
       </c>
       <c r="G19">
-        <v>0.0007535630112065483</v>
+        <v>0.7682620525924335</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.5054978362757083</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.5538458916639684</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.9407119154313932</v>
+        <v>1.540988563977095</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.5525160241538458</v>
       </c>
       <c r="M19">
-        <v>4.279692643139867</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>1.293101562536108</v>
+        <v>0.7523504634510658</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.574661429008245</v>
+        <v>1.858136074870288</v>
       </c>
       <c r="C20">
-        <v>0.8099793355698353</v>
+        <v>0.1170713374975705</v>
       </c>
       <c r="D20">
-        <v>0.02466660247285191</v>
+        <v>0.06201337290777786</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>2.822650633203722</v>
+        <v>0.9047725299448501</v>
       </c>
       <c r="G20">
-        <v>0.0007501451660435497</v>
+        <v>0.7860981718680478</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.5113227746614513</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.5608226299800947</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.9816095673088796</v>
+        <v>1.603058834641615</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.5736099473831615</v>
       </c>
       <c r="M20">
-        <v>4.499630631259805</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>1.303187830013982</v>
+        <v>0.7370074182786084</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.084004402833216</v>
+        <v>2.100452219114914</v>
       </c>
       <c r="C21">
-        <v>0.9254489619886215</v>
+        <v>0.1261646791326285</v>
       </c>
       <c r="D21">
-        <v>0.02422522016696504</v>
+        <v>0.06618893047703267</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>3.188707557850677</v>
+        <v>0.9797359000633179</v>
       </c>
       <c r="G21">
-        <v>0.0007386525914512276</v>
+        <v>0.8484381001772476</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.5321994659459079</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.585887382066133</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.121892811115089</v>
+        <v>1.812981049307297</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.6454537855201892</v>
       </c>
       <c r="M21">
-        <v>5.284917647102503</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>1.342929354436791</v>
+        <v>0.6872889638692392</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.426110058225674</v>
+        <v>2.260340020421097</v>
       </c>
       <c r="C22">
-        <v>1.002981882622237</v>
+        <v>0.1321393628212633</v>
       </c>
       <c r="D22">
-        <v>0.0240850919914557</v>
+        <v>0.0689117378471451</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>3.439400263250604</v>
+        <v>1.030699098507981</v>
       </c>
       <c r="G22">
-        <v>0.0007310992271352143</v>
+        <v>0.8911334257576158</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.5468865173077688</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.6035687453779559</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.216105545721007</v>
+        <v>1.951355062945993</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.6932108429199815</v>
       </c>
       <c r="M22">
-        <v>5.84287789460879</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>1.374007015500453</v>
+        <v>0.6562291395985973</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.242579504202013</v>
+        <v>2.174853873328743</v>
       </c>
       <c r="C23">
-        <v>0.9613894424111322</v>
+        <v>0.1289471845572336</v>
       </c>
       <c r="D23">
-        <v>0.02414451141394025</v>
+        <v>0.0674590330473066</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>3.304426055599805</v>
+        <v>1.003308539407598</v>
       </c>
       <c r="G23">
-        <v>0.0007351370727997821</v>
+        <v>0.8681571732378615</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.5389476731972422</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.5940069148925957</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.165563774800958</v>
+        <v>1.877384246934724</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.6676432492431132</v>
       </c>
       <c r="M23">
-        <v>5.540211530274235</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>1.356899533634902</v>
+        <v>0.6726705560030055</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.566471675513299</v>
+        <v>1.854198630737329</v>
       </c>
       <c r="C24">
-        <v>0.8081222383065096</v>
+        <v>0.1169231427789086</v>
       </c>
       <c r="D24">
-        <v>0.02467596151690188</v>
+        <v>0.06194500975850303</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>2.816835150968956</v>
+        <v>0.9035783370497228</v>
       </c>
       <c r="G24">
-        <v>0.0007503328126320938</v>
+        <v>0.7851099967930537</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.5109981555221452</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.5604336116885804</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.9793537619831056</v>
+        <v>1.599645435131862</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.5724481102130738</v>
       </c>
       <c r="M24">
-        <v>4.4874000953875</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>1.302613593760938</v>
+        <v>0.7378432605676331</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.868171545653865</v>
+        <v>1.513721151696984</v>
       </c>
       <c r="C25">
-        <v>0.6496926790671012</v>
+        <v>0.1040443580053747</v>
       </c>
       <c r="D25">
-        <v>0.02574024657924312</v>
+        <v>0.05596565342987248</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>2.329392830138957</v>
+        <v>0.803493077500903</v>
       </c>
       <c r="G25">
-        <v>0.0007667541060899548</v>
+        <v>0.7029415831585482</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.4848879512027224</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.5292348486721323</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.7869808785079044</v>
+        <v>1.304149673999945</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.4727127737386922</v>
       </c>
       <c r="M25">
-        <v>3.484571136234862</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>1.261522469329208</v>
+        <v>0.8138674519235849</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_51/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_51/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.266483118879705</v>
+        <v>0.652559330171556</v>
       </c>
       <c r="C2">
-        <v>0.09459359663167533</v>
+        <v>0.09191433375413993</v>
       </c>
       <c r="D2">
-        <v>0.05152985350055417</v>
+        <v>0.04469045870509092</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7352463629283577</v>
+        <v>1.061829334936824</v>
       </c>
       <c r="G2">
-        <v>0.647821352346881</v>
+        <v>0.9210214308772464</v>
       </c>
       <c r="H2">
-        <v>0.4686877452118381</v>
+        <v>0.9587367696032345</v>
       </c>
       <c r="I2">
-        <v>0.5099994359862166</v>
+        <v>0.9516650563446944</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.08907474240462</v>
+        <v>0.4051525459359198</v>
       </c>
       <c r="L2">
-        <v>0.4012925995253198</v>
+        <v>0.3030385400232376</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8743436701875993</v>
+        <v>1.803030238841753</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.100544770164817</v>
+        <v>0.6080022520366697</v>
       </c>
       <c r="C3">
-        <v>0.08818797511357701</v>
+        <v>0.08968645335666281</v>
       </c>
       <c r="D3">
-        <v>0.04850030460943344</v>
+        <v>0.04351573914959417</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6919403742310024</v>
+        <v>1.057662807273914</v>
       </c>
       <c r="G3">
-        <v>0.6133717507409955</v>
+        <v>0.9184845056403219</v>
       </c>
       <c r="H3">
-        <v>0.4593927313810582</v>
+        <v>0.9620002193509833</v>
       </c>
       <c r="I3">
-        <v>0.4990322192746603</v>
+        <v>0.9548734544976369</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.9444145221884241</v>
+        <v>0.3640989713066745</v>
       </c>
       <c r="L3">
-        <v>0.3539112007378975</v>
+        <v>0.2918983375416104</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.917944100125343</v>
+        <v>1.821373653892056</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9992937603074665</v>
+        <v>0.5809078997976087</v>
       </c>
       <c r="C4">
-        <v>0.08424840801709621</v>
+        <v>0.08829739446222362</v>
       </c>
       <c r="D4">
-        <v>0.04662787710636351</v>
+        <v>0.04278456536061981</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6666657529713902</v>
+        <v>1.05570790097925</v>
       </c>
       <c r="G4">
-        <v>0.5935159342487424</v>
+        <v>0.9174836469832428</v>
       </c>
       <c r="H4">
-        <v>0.4544545417216028</v>
+        <v>0.9644185251876536</v>
       </c>
       <c r="I4">
-        <v>0.4932389717635317</v>
+        <v>0.9573084924027739</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.8559959229810374</v>
+        <v>0.3389880312932405</v>
       </c>
       <c r="L4">
-        <v>0.3252507601787471</v>
+        <v>0.285232980978634</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9459460621371356</v>
+        <v>1.833227735542309</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9581710869639437</v>
+        <v>0.5699335643241739</v>
       </c>
       <c r="C5">
-        <v>0.08264054816670097</v>
+        <v>0.08772602827294662</v>
       </c>
       <c r="D5">
-        <v>0.04586167305527411</v>
+        <v>0.04248413311523436</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6566778261100765</v>
+        <v>1.055062964983662</v>
       </c>
       <c r="G5">
-        <v>0.5857314573228081</v>
+        <v>0.9172157019943086</v>
       </c>
       <c r="H5">
-        <v>0.4526269699208427</v>
+        <v>0.9655082954937058</v>
       </c>
       <c r="I5">
-        <v>0.4911035816604326</v>
+        <v>0.9584177300971959</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.8200473317431261</v>
+        <v>0.3287796261755318</v>
       </c>
       <c r="L5">
-        <v>0.3136701743101895</v>
+        <v>0.2825607709324913</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9576582757011209</v>
+        <v>1.838206963934514</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9513504109793303</v>
+        <v>0.5681153349958663</v>
       </c>
       <c r="C6">
-        <v>0.08237339300074353</v>
+        <v>0.08763083244492265</v>
       </c>
       <c r="D6">
-        <v>0.04573425128112873</v>
+        <v>0.04243409762759498</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6550376242291804</v>
+        <v>1.054965035998862</v>
       </c>
       <c r="G6">
-        <v>0.5844568504556804</v>
+        <v>0.9171796572922659</v>
       </c>
       <c r="H6">
-        <v>0.452334420864247</v>
+        <v>0.9656955515220318</v>
       </c>
       <c r="I6">
-        <v>0.4907623011210021</v>
+        <v>0.9586089809262148</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.8140825635042575</v>
+        <v>0.3270860183775142</v>
       </c>
       <c r="L6">
-        <v>0.3117529149639324</v>
+        <v>0.2821197094509387</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9596210339869593</v>
+        <v>1.839042734128608</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9987386351816667</v>
+        <v>0.5807596248308471</v>
       </c>
       <c r="C7">
-        <v>0.08422673484275833</v>
+        <v>0.08828971033268829</v>
       </c>
       <c r="D7">
-        <v>0.04661755677622281</v>
+        <v>0.04278052362062823</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.6665298147956236</v>
+        <v>1.055698588924152</v>
       </c>
       <c r="G7">
-        <v>0.5934097317791895</v>
+        <v>0.9174794670212805</v>
       </c>
       <c r="H7">
-        <v>0.4544291572947827</v>
+        <v>0.9644327998720286</v>
       </c>
       <c r="I7">
-        <v>0.4932092747788417</v>
+        <v>0.9573229784932806</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.8555107968190896</v>
+        <v>0.3388502574979668</v>
       </c>
       <c r="L7">
-        <v>0.3250941930302389</v>
+        <v>0.2851967645194549</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9461028084033032</v>
+        <v>1.833294285583392</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.209121979117157</v>
+        <v>0.6371415554021098</v>
       </c>
       <c r="C8">
-        <v>0.09238577176068929</v>
+        <v>0.09115054597480565</v>
       </c>
       <c r="D8">
-        <v>0.05048775540013395</v>
+        <v>0.04428747654396403</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7200296260231909</v>
+        <v>1.060267475562156</v>
       </c>
       <c r="G8">
-        <v>0.6356622723266696</v>
+        <v>0.9200310636994544</v>
       </c>
       <c r="H8">
-        <v>0.4653179055917889</v>
+        <v>0.9597760008010852</v>
       </c>
       <c r="I8">
-        <v>0.5060158169809696</v>
+        <v>0.952674782272787</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.039100541462489</v>
+        <v>0.3909775123810846</v>
       </c>
       <c r="L8">
-        <v>0.3848597503932609</v>
+        <v>0.2991611372268892</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8891163977886549</v>
+        <v>1.809232323159662</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.62779943710089</v>
+        <v>0.749785083298093</v>
       </c>
       <c r="C9">
-        <v>0.1083747286956509</v>
+        <v>0.09659318473334366</v>
       </c>
       <c r="D9">
-        <v>0.05798459315330717</v>
+        <v>0.04716361999087582</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.8362976858907132</v>
+        <v>1.07401712298271</v>
       </c>
       <c r="G9">
-        <v>0.729721217519014</v>
+        <v>0.9294592305258362</v>
       </c>
       <c r="H9">
-        <v>0.4931848927314775</v>
+        <v>0.9539314907319323</v>
       </c>
       <c r="I9">
-        <v>0.5391271044936161</v>
+        <v>0.9472508070648118</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.403235281951197</v>
+        <v>0.493952064491765</v>
       </c>
       <c r="L9">
-        <v>0.5059627390974697</v>
+        <v>0.3279325064393532</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.7875325908933846</v>
+        <v>1.766739193801136</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.940747489103899</v>
+        <v>0.8338003902358651</v>
       </c>
       <c r="C10">
-        <v>0.1201772322416588</v>
+        <v>0.100490434492194</v>
       </c>
       <c r="D10">
-        <v>0.06344382825901818</v>
+        <v>0.04922807156098941</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.930008222302618</v>
+        <v>1.087045777855607</v>
       </c>
       <c r="G10">
-        <v>0.8070179306249656</v>
+        <v>0.9390945173581571</v>
       </c>
       <c r="H10">
-        <v>0.518244089805421</v>
+        <v>0.9516403366803274</v>
       </c>
       <c r="I10">
-        <v>0.5691225915007578</v>
+        <v>0.9455185468309324</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.674657357667712</v>
+        <v>0.5700616198986665</v>
       </c>
       <c r="L10">
-        <v>0.5980283010090659</v>
+        <v>0.3499199342520996</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7196820071856962</v>
+        <v>1.738381485768116</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.084665686021083</v>
+        <v>0.8722920706575792</v>
       </c>
       <c r="C11">
-        <v>0.1255737516669342</v>
+        <v>0.1022415165524535</v>
       </c>
       <c r="D11">
-        <v>0.0659187368404659</v>
+        <v>0.0501565854847712</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9747668268597778</v>
+        <v>1.093609991522385</v>
       </c>
       <c r="G11">
-        <v>0.8442880521261173</v>
+        <v>0.9440685120818273</v>
       </c>
       <c r="H11">
-        <v>0.5307873919955313</v>
+        <v>0.9510327284788502</v>
       </c>
       <c r="I11">
-        <v>0.5841893662433222</v>
+        <v>0.9452202917692603</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.799313020188833</v>
+        <v>0.6047838554471525</v>
       </c>
       <c r="L11">
-        <v>0.6407532977655279</v>
+        <v>0.3601078403928426</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6904285341699783</v>
+        <v>1.72610260430228</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.139422154334227</v>
+        <v>0.8869067239675701</v>
       </c>
       <c r="C12">
-        <v>0.127622604472279</v>
+        <v>0.1029014758922386</v>
       </c>
       <c r="D12">
-        <v>0.0668548598792853</v>
+        <v>0.0505066509913803</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.9920513579798751</v>
+        <v>1.096187422436714</v>
       </c>
       <c r="G12">
-        <v>0.8587338059659686</v>
+        <v>0.9460371602859396</v>
       </c>
       <c r="H12">
-        <v>0.5357150080711932</v>
+        <v>0.9508651163627491</v>
       </c>
       <c r="I12">
-        <v>0.5901163490107848</v>
+        <v>0.9451778126477421</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.846716853475186</v>
+        <v>0.6179463562315561</v>
       </c>
       <c r="L12">
-        <v>0.6570687392232202</v>
+        <v>0.3639924533920862</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6795957436481004</v>
+        <v>1.721542306045162</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.127617335735238</v>
+        <v>0.8837574845146037</v>
       </c>
       <c r="C13">
-        <v>0.1271810883985864</v>
+        <v>0.1027594814295014</v>
       </c>
       <c r="D13">
-        <v>0.06665329405172571</v>
+        <v>0.05043132698288844</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.988313417370037</v>
+        <v>1.095628247202285</v>
       </c>
       <c r="G13">
-        <v>0.8556073809545097</v>
+        <v>0.9456093894011701</v>
       </c>
       <c r="H13">
-        <v>0.5346456303064571</v>
+        <v>0.9508984364054101</v>
       </c>
       <c r="I13">
-        <v>0.5888297287729642</v>
+        <v>0.9451838268070532</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.836498230988212</v>
+        <v>0.6151109620990667</v>
       </c>
       <c r="L13">
-        <v>0.6535485977953357</v>
+        <v>0.3631546466507558</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6819176698651042</v>
+        <v>1.722520467678638</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.089165163617167</v>
+        <v>0.8734936545910728</v>
       </c>
       <c r="C14">
-        <v>0.1257421974435715</v>
+        <v>0.1022958747007578</v>
       </c>
       <c r="D14">
-        <v>0.06599577277488322</v>
+        <v>0.05018541659225662</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.9761819378391579</v>
+        <v>1.093820200132001</v>
       </c>
       <c r="G14">
-        <v>0.8454696757814872</v>
+        <v>0.9442287675339571</v>
       </c>
       <c r="H14">
-        <v>0.5311891480506432</v>
+        <v>0.9510176869658125</v>
       </c>
       <c r="I14">
-        <v>0.5846724404855337</v>
+        <v>0.9452153845782831</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.803208789910087</v>
+        <v>0.6058664650385595</v>
       </c>
       <c r="L14">
-        <v>0.6420927546612489</v>
+        <v>0.3604268954371861</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6895323281732502</v>
+        <v>1.725725632444114</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.065646719866152</v>
+        <v>0.8672117853380996</v>
       </c>
       <c r="C15">
-        <v>0.1248615687316175</v>
+        <v>0.1020114935134302</v>
       </c>
       <c r="D15">
-        <v>0.06559288735642355</v>
+        <v>0.05003458801402161</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.968795643880739</v>
+        <v>1.092724663252156</v>
       </c>
       <c r="G15">
-        <v>0.8393042316741628</v>
+        <v>0.9433941840326128</v>
       </c>
       <c r="H15">
-        <v>0.5290955113652558</v>
+        <v>0.9510988668230738</v>
       </c>
       <c r="I15">
-        <v>0.5821553596119529</v>
+        <v>0.9452438921661681</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.782844922860448</v>
+        <v>0.6002057482330656</v>
       </c>
       <c r="L15">
-        <v>0.6350939515158842</v>
+        <v>0.358759541859726</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6942288193710304</v>
+        <v>1.727700540819402</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.931376259954334</v>
+        <v>0.831290310941796</v>
       </c>
       <c r="C16">
-        <v>0.1198252233065702</v>
+        <v>0.1003755582947434</v>
       </c>
       <c r="D16">
-        <v>0.063281928519757</v>
+        <v>0.04916717600631415</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.92712843669959</v>
+        <v>1.086629621411831</v>
       </c>
       <c r="G16">
-        <v>0.8046271030925567</v>
+        <v>0.9387813565952854</v>
       </c>
       <c r="H16">
-        <v>0.5174484817594163</v>
+        <v>0.9516887893112624</v>
       </c>
       <c r="I16">
-        <v>0.5681679812845246</v>
+        <v>0.945547896842541</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.666537087617542</v>
+        <v>0.5677944121301834</v>
       </c>
       <c r="L16">
-        <v>0.5952543650084863</v>
+        <v>0.3492578650030822</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.7216273226001135</v>
+        <v>1.739196449720872</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.849427683934124</v>
+        <v>0.8093231210298484</v>
       </c>
       <c r="C17">
-        <v>0.1167435570752886</v>
+        <v>0.09936638021820698</v>
       </c>
       <c r="D17">
-        <v>0.06186215228750314</v>
+        <v>0.04863231650600142</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.9021324128226951</v>
+        <v>1.08305380058647</v>
       </c>
       <c r="G17">
-        <v>0.7839137390828199</v>
+        <v>0.9361029681747084</v>
       </c>
       <c r="H17">
-        <v>0.5106054709387138</v>
+        <v>0.9521619929569169</v>
       </c>
       <c r="I17">
-        <v>0.5599630572481331</v>
+        <v>0.9458598589519696</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.595509359176447</v>
+        <v>0.5479363505317849</v>
       </c>
       <c r="L17">
-        <v>0.5710405744172675</v>
+        <v>0.3434764378072259</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.7388572862278338</v>
+        <v>1.746408003320827</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.80243735821216</v>
+        <v>0.7967138731609396</v>
       </c>
       <c r="C18">
-        <v>0.114973564693031</v>
+        <v>0.09878387628777574</v>
       </c>
       <c r="D18">
-        <v>0.06104472204017952</v>
+        <v>0.04832368124693431</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.8879538950028092</v>
+        <v>1.081057076607635</v>
       </c>
       <c r="G18">
-        <v>0.7721964400784032</v>
+        <v>0.934618035631928</v>
       </c>
       <c r="H18">
-        <v>0.5067763539791059</v>
+        <v>0.9524750799328672</v>
       </c>
       <c r="I18">
-        <v>0.5553765197464955</v>
+        <v>0.9460853874844091</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.554765694296833</v>
+        <v>0.5365239179568846</v>
       </c>
       <c r="L18">
-        <v>0.5571919083655104</v>
+        <v>0.3401685960926102</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.7489184055411933</v>
+        <v>1.750614359296275</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.786551038056359</v>
+        <v>0.7924490282429986</v>
       </c>
       <c r="C19">
-        <v>0.1143746658945446</v>
+        <v>0.098586298234693</v>
       </c>
       <c r="D19">
-        <v>0.06076781017392108</v>
+        <v>0.04821901169723475</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.8831865356769413</v>
+        <v>1.080391322717219</v>
       </c>
       <c r="G19">
-        <v>0.7682620525924335</v>
+        <v>0.9341248090371437</v>
       </c>
       <c r="H19">
-        <v>0.5054978362757083</v>
+        <v>0.952588113418571</v>
       </c>
       <c r="I19">
-        <v>0.5538458916639684</v>
+        <v>0.946169663519747</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.540988563977095</v>
+        <v>0.5326614903111135</v>
       </c>
       <c r="L19">
-        <v>0.5525160241538458</v>
+        <v>0.3390516212760275</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.7523504634510658</v>
+        <v>1.752048596225169</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.858136074870288</v>
+        <v>0.8116589099676332</v>
       </c>
       <c r="C20">
-        <v>0.1170713374975705</v>
+        <v>0.09947402128046434</v>
       </c>
       <c r="D20">
-        <v>0.06201337290777786</v>
+        <v>0.04868935664100604</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.9047725299448501</v>
+        <v>1.083428243368232</v>
       </c>
       <c r="G20">
-        <v>0.7860981718680478</v>
+        <v>0.9363823312021538</v>
       </c>
       <c r="H20">
-        <v>0.5113227746614513</v>
+        <v>0.9521073854930933</v>
       </c>
       <c r="I20">
-        <v>0.5608226299800947</v>
+        <v>0.9458218790035531</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.603058834641615</v>
+        <v>0.5500493050641637</v>
       </c>
       <c r="L20">
-        <v>0.5736099473831615</v>
+        <v>0.3440900714780355</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7370074182786084</v>
+        <v>1.74563426974392</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.100452219114914</v>
+        <v>0.8765073443983056</v>
       </c>
       <c r="C21">
-        <v>0.1261646791326285</v>
+        <v>0.1024321324095183</v>
       </c>
       <c r="D21">
-        <v>0.06618893047703267</v>
+        <v>0.05025768842718037</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.9797359000633179</v>
+        <v>1.094348778150234</v>
       </c>
       <c r="G21">
-        <v>0.8484381001772476</v>
+        <v>0.9446319788190465</v>
       </c>
       <c r="H21">
-        <v>0.5321994659459079</v>
+        <v>0.9509809648117766</v>
       </c>
       <c r="I21">
-        <v>0.585887382066133</v>
+        <v>0.945204202638017</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.812981049307297</v>
+        <v>0.608581422524594</v>
       </c>
       <c r="L21">
-        <v>0.6454537855201892</v>
+        <v>0.3612273784184197</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6872889638692392</v>
+        <v>1.724781769283826</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.260340020421097</v>
+        <v>0.9191148127430893</v>
       </c>
       <c r="C22">
-        <v>0.1321393628212633</v>
+        <v>0.1043471402115301</v>
       </c>
       <c r="D22">
-        <v>0.0689117378471451</v>
+        <v>0.05127368524825471</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.030699098507981</v>
+        <v>1.102020531064596</v>
       </c>
       <c r="G22">
-        <v>0.8911334257576158</v>
+        <v>0.9505197186856691</v>
       </c>
       <c r="H22">
-        <v>0.5468865173077688</v>
+        <v>0.9506089296493201</v>
       </c>
       <c r="I22">
-        <v>0.6035687453779559</v>
+        <v>0.9452112486142781</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.951355062945993</v>
+        <v>0.6469166426923607</v>
       </c>
       <c r="L22">
-        <v>0.6932108429199815</v>
+        <v>0.3725830609223095</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.6562291395985973</v>
+        <v>1.711674883134918</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.174853873328743</v>
+        <v>0.8963539661709774</v>
       </c>
       <c r="C23">
-        <v>0.1289471845572336</v>
+        <v>0.1033267389759658</v>
       </c>
       <c r="D23">
-        <v>0.0674590330473066</v>
+        <v>0.05073225729785236</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.003308539407598</v>
+        <v>1.097877045325617</v>
       </c>
       <c r="G23">
-        <v>0.8681571732378615</v>
+        <v>0.9473318799740582</v>
       </c>
       <c r="H23">
-        <v>0.5389476731972422</v>
+        <v>0.9507741808958912</v>
       </c>
       <c r="I23">
-        <v>0.5940069148925957</v>
+        <v>0.9451698936378889</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.877384246934724</v>
+        <v>0.6264491197625546</v>
       </c>
       <c r="L23">
-        <v>0.6676432492431132</v>
+        <v>0.3665081052592427</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.6726705560030055</v>
+        <v>1.718622523014417</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.854198630737329</v>
+        <v>0.8106028375077869</v>
       </c>
       <c r="C24">
-        <v>0.1169231427789086</v>
+        <v>0.09942536396427926</v>
       </c>
       <c r="D24">
-        <v>0.06194500975850303</v>
+        <v>0.04866357233712648</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.9035783370497228</v>
+        <v>1.083258773810428</v>
       </c>
       <c r="G24">
-        <v>0.7851099967930537</v>
+        <v>0.9362558601490036</v>
       </c>
       <c r="H24">
-        <v>0.5109981555221452</v>
+        <v>0.9521319456977295</v>
       </c>
       <c r="I24">
-        <v>0.5604336116885804</v>
+        <v>0.9458389058985475</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.599645435131862</v>
+        <v>0.5490940251125664</v>
       </c>
       <c r="L24">
-        <v>0.5724481102130738</v>
+        <v>0.343812597926501</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.7378432605676331</v>
+        <v>1.745983886747226</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.513721151696984</v>
+        <v>0.7190906345060171</v>
       </c>
       <c r="C25">
-        <v>0.1040443580053747</v>
+        <v>0.09513866879973421</v>
       </c>
       <c r="D25">
-        <v>0.05596565342987248</v>
+        <v>0.04639405485153958</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.803493077500903</v>
+        <v>1.069783983144859</v>
       </c>
       <c r="G25">
-        <v>0.7029415831585482</v>
+        <v>0.9264338396792198</v>
       </c>
       <c r="H25">
-        <v>0.4848879512027224</v>
+        <v>0.955160779497632</v>
       </c>
       <c r="I25">
-        <v>0.5292348486721323</v>
+        <v>0.9483227168907433</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.304149673999945</v>
+        <v>0.4660146044783744</v>
       </c>
       <c r="L25">
-        <v>0.4727127737386922</v>
+        <v>0.3200002199276355</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.8138674519235849</v>
+        <v>1.777732230487075</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_51/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_51/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.652559330171556</v>
+        <v>1.266483118879762</v>
       </c>
       <c r="C2">
-        <v>0.09191433375413993</v>
+        <v>0.0945935966317748</v>
       </c>
       <c r="D2">
-        <v>0.04469045870509092</v>
+        <v>0.05152985350061101</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.061829334936824</v>
+        <v>0.7352463629283363</v>
       </c>
       <c r="G2">
-        <v>0.9210214308772464</v>
+        <v>0.6478213523469378</v>
       </c>
       <c r="H2">
-        <v>0.9587367696032345</v>
+        <v>0.4686877452118381</v>
       </c>
       <c r="I2">
-        <v>0.9516650563446944</v>
+        <v>0.5099994359862308</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4051525459359198</v>
+        <v>1.089074742404648</v>
       </c>
       <c r="L2">
-        <v>0.3030385400232376</v>
+        <v>0.4012925995252772</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.803030238841753</v>
+        <v>0.8743436701875247</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6080022520366697</v>
+        <v>1.100544770164788</v>
       </c>
       <c r="C3">
-        <v>0.08968645335666281</v>
+        <v>0.08818797511347753</v>
       </c>
       <c r="D3">
-        <v>0.04351573914959417</v>
+        <v>0.0485003046093162</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.057662807273914</v>
+        <v>0.6919403742309953</v>
       </c>
       <c r="G3">
-        <v>0.9184845056403219</v>
+        <v>0.6133717507409955</v>
       </c>
       <c r="H3">
-        <v>0.9620002193509833</v>
+        <v>0.4593927313810582</v>
       </c>
       <c r="I3">
-        <v>0.9548734544976369</v>
+        <v>0.4990322192746746</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.3640989713066745</v>
+        <v>0.9444145221884241</v>
       </c>
       <c r="L3">
-        <v>0.2918983375416104</v>
+        <v>0.3539112007378833</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.821373653892056</v>
+        <v>0.9179441001253217</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5809078997976087</v>
+        <v>0.9992937603073244</v>
       </c>
       <c r="C4">
-        <v>0.08829739446222362</v>
+        <v>0.08424840801670541</v>
       </c>
       <c r="D4">
-        <v>0.04278456536061981</v>
+        <v>0.04662787710640259</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.05570790097925</v>
+        <v>0.6666657529713902</v>
       </c>
       <c r="G4">
-        <v>0.9174836469832428</v>
+        <v>0.5935159342487566</v>
       </c>
       <c r="H4">
-        <v>0.9644185251876536</v>
+        <v>0.4544545417216028</v>
       </c>
       <c r="I4">
-        <v>0.9573084924027739</v>
+        <v>0.4932389717635317</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.3389880312932405</v>
+        <v>0.855995922981009</v>
       </c>
       <c r="L4">
-        <v>0.285232980978634</v>
+        <v>0.3252507601787045</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.833227735542309</v>
+        <v>0.9459460621371143</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5699335643241739</v>
+        <v>0.9581710869640574</v>
       </c>
       <c r="C5">
-        <v>0.08772602827294662</v>
+        <v>0.08264054816623201</v>
       </c>
       <c r="D5">
-        <v>0.04248413311523436</v>
+        <v>0.04586167305527056</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.055062964983662</v>
+        <v>0.6566778261100836</v>
       </c>
       <c r="G5">
-        <v>0.9172157019943086</v>
+        <v>0.585731457322737</v>
       </c>
       <c r="H5">
-        <v>0.9655082954937058</v>
+        <v>0.4526269699209848</v>
       </c>
       <c r="I5">
-        <v>0.9584177300971959</v>
+        <v>0.491103581660461</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.3287796261755318</v>
+        <v>0.8200473317430976</v>
       </c>
       <c r="L5">
-        <v>0.2825607709324913</v>
+        <v>0.3136701743102464</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.838206963934514</v>
+        <v>0.9576582757011494</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5681153349958663</v>
+        <v>0.9513504109793018</v>
       </c>
       <c r="C6">
-        <v>0.08763083244492265</v>
+        <v>0.08237339300042379</v>
       </c>
       <c r="D6">
-        <v>0.04243409762759498</v>
+        <v>0.04573425128122466</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.054965035998862</v>
+        <v>0.6550376242291875</v>
       </c>
       <c r="G6">
-        <v>0.9171796572922659</v>
+        <v>0.5844568504556804</v>
       </c>
       <c r="H6">
-        <v>0.9656955515220318</v>
+        <v>0.4523344208643465</v>
       </c>
       <c r="I6">
-        <v>0.9586089809262148</v>
+        <v>0.4907623011209914</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.3270860183775142</v>
+        <v>0.8140825635043143</v>
       </c>
       <c r="L6">
-        <v>0.2821197094509387</v>
+        <v>0.3117529149637761</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.839042734128608</v>
+        <v>0.9596210339869522</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5807596248308471</v>
+        <v>0.9987386351816383</v>
       </c>
       <c r="C7">
-        <v>0.08828971033268829</v>
+        <v>0.08422673484286491</v>
       </c>
       <c r="D7">
-        <v>0.04278052362062823</v>
+        <v>0.04661755677610202</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.055698588924152</v>
+        <v>0.6665298147956165</v>
       </c>
       <c r="G7">
-        <v>0.9174794670212805</v>
+        <v>0.5934097317791611</v>
       </c>
       <c r="H7">
-        <v>0.9644327998720286</v>
+        <v>0.4544291572947685</v>
       </c>
       <c r="I7">
-        <v>0.9573229784932806</v>
+        <v>0.4932092747788275</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.3388502574979668</v>
+        <v>0.8555107968190896</v>
       </c>
       <c r="L7">
-        <v>0.2851967645194549</v>
+        <v>0.3250941930303384</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.833294285583392</v>
+        <v>0.9461028084032286</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6371415554021098</v>
+        <v>1.209121979117327</v>
       </c>
       <c r="C8">
-        <v>0.09115054597480565</v>
+        <v>0.09238577176068929</v>
       </c>
       <c r="D8">
-        <v>0.04428747654396403</v>
+        <v>0.05048775540013395</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.060267475562156</v>
+        <v>0.7200296260231767</v>
       </c>
       <c r="G8">
-        <v>0.9200310636994544</v>
+        <v>0.6356622723267122</v>
       </c>
       <c r="H8">
-        <v>0.9597760008010852</v>
+        <v>0.4653179055917747</v>
       </c>
       <c r="I8">
-        <v>0.952674782272787</v>
+        <v>0.5060158169809839</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.3909775123810846</v>
+        <v>1.039100541462432</v>
       </c>
       <c r="L8">
-        <v>0.2991611372268892</v>
+        <v>0.3848597503932467</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.809232323159662</v>
+        <v>0.8891163977886727</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.749785083298093</v>
+        <v>1.627799437101061</v>
       </c>
       <c r="C9">
-        <v>0.09659318473334366</v>
+        <v>0.1083747286955159</v>
       </c>
       <c r="D9">
-        <v>0.04716361999087582</v>
+        <v>0.05798459315329296</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.07401712298271</v>
+        <v>0.836297685890699</v>
       </c>
       <c r="G9">
-        <v>0.9294592305258362</v>
+        <v>0.7297212175191135</v>
       </c>
       <c r="H9">
-        <v>0.9539314907319323</v>
+        <v>0.4931848927314775</v>
       </c>
       <c r="I9">
-        <v>0.9472508070648118</v>
+        <v>0.539127104493609</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.493952064491765</v>
+        <v>1.403235281951169</v>
       </c>
       <c r="L9">
-        <v>0.3279325064393532</v>
+        <v>0.5059627390974697</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.766739193801136</v>
+        <v>0.7875325908934236</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.8338003902358651</v>
+        <v>1.94074748910387</v>
       </c>
       <c r="C10">
-        <v>0.100490434492194</v>
+        <v>0.1201772322415451</v>
       </c>
       <c r="D10">
-        <v>0.04922807156098941</v>
+        <v>0.06344382825925265</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.087045777855607</v>
+        <v>0.9300082223025896</v>
       </c>
       <c r="G10">
-        <v>0.9390945173581571</v>
+        <v>0.8070179306250083</v>
       </c>
       <c r="H10">
-        <v>0.9516403366803274</v>
+        <v>0.5182440898053073</v>
       </c>
       <c r="I10">
-        <v>0.9455185468309324</v>
+        <v>0.5691225915007578</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.5700616198986665</v>
+        <v>1.674657357667769</v>
       </c>
       <c r="L10">
-        <v>0.3499199342520996</v>
+        <v>0.5980283010090375</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.738381485768116</v>
+        <v>0.7196820071856749</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.8722920706575792</v>
+        <v>2.084665686021026</v>
       </c>
       <c r="C11">
-        <v>0.1022415165524535</v>
+        <v>0.1255737516670337</v>
       </c>
       <c r="D11">
-        <v>0.0501565854847712</v>
+        <v>0.06591873684069327</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.093609991522385</v>
+        <v>0.974766826859792</v>
       </c>
       <c r="G11">
-        <v>0.9440685120818273</v>
+        <v>0.8442880521261173</v>
       </c>
       <c r="H11">
-        <v>0.9510327284788502</v>
+        <v>0.5307873919955455</v>
       </c>
       <c r="I11">
-        <v>0.9452202917692603</v>
+        <v>0.5841893662433151</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.6047838554471525</v>
+        <v>1.79931302018872</v>
       </c>
       <c r="L11">
-        <v>0.3601078403928426</v>
+        <v>0.6407532977654711</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.72610260430228</v>
+        <v>0.6904285341699641</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.8869067239675701</v>
+        <v>2.13942215433417</v>
       </c>
       <c r="C12">
-        <v>0.1029014758922386</v>
+        <v>0.1276226044722648</v>
       </c>
       <c r="D12">
-        <v>0.0505066509913803</v>
+        <v>0.06685485987939899</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.096187422436714</v>
+        <v>0.9920513579798609</v>
       </c>
       <c r="G12">
-        <v>0.9460371602859396</v>
+        <v>0.8587338059658975</v>
       </c>
       <c r="H12">
-        <v>0.9508651163627491</v>
+        <v>0.5357150080711932</v>
       </c>
       <c r="I12">
-        <v>0.9451778126477421</v>
+        <v>0.5901163490107848</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.6179463562315561</v>
+        <v>1.846716853475215</v>
       </c>
       <c r="L12">
-        <v>0.3639924533920862</v>
+        <v>0.6570687392233197</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.721542306045162</v>
+        <v>0.6795957436480862</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.8837574845146037</v>
+        <v>2.127617335735181</v>
       </c>
       <c r="C13">
-        <v>0.1027594814295014</v>
+        <v>0.1271810883985864</v>
       </c>
       <c r="D13">
-        <v>0.05043132698288844</v>
+        <v>0.06665329405167597</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.095628247202285</v>
+        <v>0.988313417370037</v>
       </c>
       <c r="G13">
-        <v>0.9456093894011701</v>
+        <v>0.8556073809545808</v>
       </c>
       <c r="H13">
-        <v>0.9508984364054101</v>
+        <v>0.5346456303064571</v>
       </c>
       <c r="I13">
-        <v>0.9451838268070532</v>
+        <v>0.5888297287729642</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.6151109620990667</v>
+        <v>1.836498230988269</v>
       </c>
       <c r="L13">
-        <v>0.3631546466507558</v>
+        <v>0.6535485977953073</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.722520467678638</v>
+        <v>0.6819176698651397</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.8734936545910728</v>
+        <v>2.089165163617281</v>
       </c>
       <c r="C14">
-        <v>0.1022958747007578</v>
+        <v>0.1257421974435715</v>
       </c>
       <c r="D14">
-        <v>0.05018541659225662</v>
+        <v>0.0659957727749898</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.093820200132001</v>
+        <v>0.9761819378391579</v>
       </c>
       <c r="G14">
-        <v>0.9442287675339571</v>
+        <v>0.8454696757815015</v>
       </c>
       <c r="H14">
-        <v>0.9510176869658125</v>
+        <v>0.5311891480507285</v>
       </c>
       <c r="I14">
-        <v>0.9452153845782831</v>
+        <v>0.5846724404855408</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.6058664650385595</v>
+        <v>1.803208789910144</v>
       </c>
       <c r="L14">
-        <v>0.3604268954371861</v>
+        <v>0.6420927546612063</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.725725632444114</v>
+        <v>0.6895323281732324</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.8672117853380996</v>
+        <v>2.065646719866209</v>
       </c>
       <c r="C15">
-        <v>0.1020114935134302</v>
+        <v>0.1248615687316033</v>
       </c>
       <c r="D15">
-        <v>0.05003458801402161</v>
+        <v>0.06559288735618907</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.092724663252156</v>
+        <v>0.9687956438807106</v>
       </c>
       <c r="G15">
-        <v>0.9433941840326128</v>
+        <v>0.8393042316742623</v>
       </c>
       <c r="H15">
-        <v>0.9510988668230738</v>
+        <v>0.52909551136527</v>
       </c>
       <c r="I15">
-        <v>0.9452438921661681</v>
+        <v>0.5821553596119458</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.6002057482330656</v>
+        <v>1.782844922860477</v>
       </c>
       <c r="L15">
-        <v>0.358759541859726</v>
+        <v>0.6350939515158274</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.727700540819402</v>
+        <v>0.6942288193710091</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.831290310941796</v>
+        <v>1.931376259954192</v>
       </c>
       <c r="C16">
-        <v>0.1003755582947434</v>
+        <v>0.1198252233064423</v>
       </c>
       <c r="D16">
-        <v>0.04916717600631415</v>
+        <v>0.06328192851957937</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.086629621411831</v>
+        <v>0.9271284366996042</v>
       </c>
       <c r="G16">
-        <v>0.9387813565952854</v>
+        <v>0.8046271030926135</v>
       </c>
       <c r="H16">
-        <v>0.9516887893112624</v>
+        <v>0.5174484817593168</v>
       </c>
       <c r="I16">
-        <v>0.945547896842541</v>
+        <v>0.5681679812845246</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.5677944121301834</v>
+        <v>1.666537087617598</v>
       </c>
       <c r="L16">
-        <v>0.3492578650030822</v>
+        <v>0.5952543650084721</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.739196449720872</v>
+        <v>0.7216273226001633</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8093231210298484</v>
+        <v>1.849427683933953</v>
       </c>
       <c r="C17">
-        <v>0.09936638021820698</v>
+        <v>0.1167435570755302</v>
       </c>
       <c r="D17">
-        <v>0.04863231650600142</v>
+        <v>0.06186215228749603</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.08305380058647</v>
+        <v>0.9021324128226809</v>
       </c>
       <c r="G17">
-        <v>0.9361029681747084</v>
+        <v>0.7839137390828341</v>
       </c>
       <c r="H17">
-        <v>0.9521619929569169</v>
+        <v>0.5106054709387138</v>
       </c>
       <c r="I17">
-        <v>0.9458598589519696</v>
+        <v>0.5599630572481331</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.5479363505317849</v>
+        <v>1.595509359176475</v>
       </c>
       <c r="L17">
-        <v>0.3434764378072259</v>
+        <v>0.5710405744173102</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.746408003320827</v>
+        <v>0.7388572862278231</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.7967138731609396</v>
+        <v>1.802437358212075</v>
       </c>
       <c r="C18">
-        <v>0.09878387628777574</v>
+        <v>0.1149735646930239</v>
       </c>
       <c r="D18">
-        <v>0.04832368124693431</v>
+        <v>0.06104472204012268</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.081057076607635</v>
+        <v>0.887953895002795</v>
       </c>
       <c r="G18">
-        <v>0.934618035631928</v>
+        <v>0.7721964400783747</v>
       </c>
       <c r="H18">
-        <v>0.9524750799328672</v>
+        <v>0.5067763539791059</v>
       </c>
       <c r="I18">
-        <v>0.9460853874844091</v>
+        <v>0.5553765197465026</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.5365239179568846</v>
+        <v>1.554765694296975</v>
       </c>
       <c r="L18">
-        <v>0.3401685960926102</v>
+        <v>0.5571919083654961</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.750614359296275</v>
+        <v>0.7489184055412004</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.7924490282429986</v>
+        <v>1.786551038056416</v>
       </c>
       <c r="C19">
-        <v>0.098586298234693</v>
+        <v>0.1143746658945304</v>
       </c>
       <c r="D19">
-        <v>0.04821901169723475</v>
+        <v>0.06076781017385713</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.080391322717219</v>
+        <v>0.8831865356769555</v>
       </c>
       <c r="G19">
-        <v>0.9341248090371437</v>
+        <v>0.7682620525924904</v>
       </c>
       <c r="H19">
-        <v>0.952588113418571</v>
+        <v>0.5054978362757083</v>
       </c>
       <c r="I19">
-        <v>0.946169663519747</v>
+        <v>0.5538458916639613</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.5326614903111135</v>
+        <v>1.54098856397718</v>
       </c>
       <c r="L19">
-        <v>0.3390516212760275</v>
+        <v>0.5525160241537748</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.752048596225169</v>
+        <v>0.7523504634510445</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8116589099676332</v>
+        <v>1.858136074870373</v>
       </c>
       <c r="C20">
-        <v>0.09947402128046434</v>
+        <v>0.1170713374977055</v>
       </c>
       <c r="D20">
-        <v>0.04868935664100604</v>
+        <v>0.06201337290789866</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.083428243368232</v>
+        <v>0.9047725299448501</v>
       </c>
       <c r="G20">
-        <v>0.9363823312021538</v>
+        <v>0.7860981718680335</v>
       </c>
       <c r="H20">
-        <v>0.9521073854930933</v>
+        <v>0.5113227746614655</v>
       </c>
       <c r="I20">
-        <v>0.9458218790035531</v>
+        <v>0.5608226299801018</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.5500493050641637</v>
+        <v>1.603058834641558</v>
       </c>
       <c r="L20">
-        <v>0.3440900714780355</v>
+        <v>0.5736099473831757</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.74563426974392</v>
+        <v>0.7370074182786119</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.8765073443983056</v>
+        <v>2.100452219114857</v>
       </c>
       <c r="C21">
-        <v>0.1024321324095183</v>
+        <v>0.1261646791328701</v>
       </c>
       <c r="D21">
-        <v>0.05025768842718037</v>
+        <v>0.06618893047701846</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.094348778150234</v>
+        <v>0.9797359000633463</v>
       </c>
       <c r="G21">
-        <v>0.9446319788190465</v>
+        <v>0.8484381001772334</v>
       </c>
       <c r="H21">
-        <v>0.9509809648117766</v>
+        <v>0.5321994659459079</v>
       </c>
       <c r="I21">
-        <v>0.945204202638017</v>
+        <v>0.5858873820661401</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.608581422524594</v>
+        <v>1.812981049307297</v>
       </c>
       <c r="L21">
-        <v>0.3612273784184197</v>
+        <v>0.6454537855201039</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.724781769283826</v>
+        <v>0.6872889638692214</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.9191148127430893</v>
+        <v>2.260340020420983</v>
       </c>
       <c r="C22">
-        <v>0.1043471402115301</v>
+        <v>0.1321393628212348</v>
       </c>
       <c r="D22">
-        <v>0.05127368524825471</v>
+        <v>0.06891173784725169</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.102020531064596</v>
+        <v>1.030699098507981</v>
       </c>
       <c r="G22">
-        <v>0.9505197186856691</v>
+        <v>0.8911334257576158</v>
       </c>
       <c r="H22">
-        <v>0.9506089296493201</v>
+        <v>0.5468865173078967</v>
       </c>
       <c r="I22">
-        <v>0.9452112486142781</v>
+        <v>0.6035687453779914</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.6469166426923607</v>
+        <v>1.95135506294605</v>
       </c>
       <c r="L22">
-        <v>0.3725830609223095</v>
+        <v>0.6932108429199246</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.711674883134918</v>
+        <v>0.6562291395985866</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.8963539661709774</v>
+        <v>2.1748538733288</v>
       </c>
       <c r="C23">
-        <v>0.1033267389759658</v>
+        <v>0.1289471845570915</v>
       </c>
       <c r="D23">
-        <v>0.05073225729785236</v>
+        <v>0.0674590330473066</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.097877045325617</v>
+        <v>1.003308539407641</v>
       </c>
       <c r="G23">
-        <v>0.9473318799740582</v>
+        <v>0.8681571732378757</v>
       </c>
       <c r="H23">
-        <v>0.9507741808958912</v>
+        <v>0.5389476731972564</v>
       </c>
       <c r="I23">
-        <v>0.9451698936378889</v>
+        <v>0.5940069148926028</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.6264491197625546</v>
+        <v>1.877384246934781</v>
       </c>
       <c r="L23">
-        <v>0.3665081052592427</v>
+        <v>0.6676432492430422</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.718622523014417</v>
+        <v>0.6726705560030695</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.8106028375077869</v>
+        <v>1.854198630737272</v>
       </c>
       <c r="C24">
-        <v>0.09942536396427926</v>
+        <v>0.1169231427788944</v>
       </c>
       <c r="D24">
-        <v>0.04866357233712648</v>
+        <v>0.06194500975857409</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.083258773810428</v>
+        <v>0.9035783370497228</v>
       </c>
       <c r="G24">
-        <v>0.9362558601490036</v>
+        <v>0.7851099967930253</v>
       </c>
       <c r="H24">
-        <v>0.9521319456977295</v>
+        <v>0.510998155522131</v>
       </c>
       <c r="I24">
-        <v>0.9458389058985475</v>
+        <v>0.5604336116885662</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.5490940251125664</v>
+        <v>1.599645435131833</v>
       </c>
       <c r="L24">
-        <v>0.343812597926501</v>
+        <v>0.5724481102129744</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.745983886747226</v>
+        <v>0.7378432605676402</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7190906345060171</v>
+        <v>1.513721151696984</v>
       </c>
       <c r="C25">
-        <v>0.09513866879973421</v>
+        <v>0.1040443580057513</v>
       </c>
       <c r="D25">
-        <v>0.04639405485153958</v>
+        <v>0.05596565342998616</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.069783983144859</v>
+        <v>0.803493077500903</v>
       </c>
       <c r="G25">
-        <v>0.9264338396792198</v>
+        <v>0.7029415831585055</v>
       </c>
       <c r="H25">
-        <v>0.955160779497632</v>
+        <v>0.4848879512027224</v>
       </c>
       <c r="I25">
-        <v>0.9483227168907433</v>
+        <v>0.5292348486721181</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.4660146044783744</v>
+        <v>1.304149673999945</v>
       </c>
       <c r="L25">
-        <v>0.3200002199276355</v>
+        <v>0.4727127737387065</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.777732230487075</v>
+        <v>0.8138674519236346</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_51/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_51/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.266483118879762</v>
+        <v>0.6555536657392338</v>
       </c>
       <c r="C2">
-        <v>0.0945935966317748</v>
+        <v>0.1524875207887106</v>
       </c>
       <c r="D2">
-        <v>0.05152985350061101</v>
+        <v>0.0548428217134429</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.7352463629283363</v>
+        <v>0.6763042035005995</v>
       </c>
       <c r="G2">
-        <v>0.6478213523469378</v>
+        <v>0.5839945268081976</v>
       </c>
       <c r="H2">
-        <v>0.4686877452118381</v>
+        <v>0.0004637168192100916</v>
       </c>
       <c r="I2">
-        <v>0.5099994359862308</v>
+        <v>0.0004481698038505399</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.4342654467303788</v>
       </c>
       <c r="K2">
-        <v>1.089074742404648</v>
+        <v>0.4237346190690445</v>
       </c>
       <c r="L2">
-        <v>0.4012925995252772</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.7606548463394631</v>
       </c>
       <c r="N2">
-        <v>0.8743436701875247</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>2.533602377890162</v>
+      </c>
+      <c r="P2">
+        <v>0.9437471068283898</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.100544770164788</v>
+        <v>0.570080819776166</v>
       </c>
       <c r="C3">
-        <v>0.08818797511347753</v>
+        <v>0.133670452505072</v>
       </c>
       <c r="D3">
-        <v>0.0485003046093162</v>
+        <v>0.05042045617217639</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6919403742309953</v>
+        <v>0.6322685078229568</v>
       </c>
       <c r="G3">
-        <v>0.6133717507409955</v>
+        <v>0.548397395113696</v>
       </c>
       <c r="H3">
-        <v>0.4593927313810582</v>
+        <v>3.216708273523494E-05</v>
       </c>
       <c r="I3">
-        <v>0.4990322192746746</v>
+        <v>0.0005458970482021819</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.4221344979644499</v>
       </c>
       <c r="K3">
-        <v>0.9444145221884241</v>
+        <v>0.4113859743439647</v>
       </c>
       <c r="L3">
-        <v>0.3539112007378833</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.6619384796186978</v>
       </c>
       <c r="N3">
-        <v>0.9179441001253217</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>2.201628237936305</v>
+      </c>
+      <c r="P3">
+        <v>0.9673493841678429</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9992937603073244</v>
+        <v>0.5173285413252415</v>
       </c>
       <c r="C4">
-        <v>0.08424840801670541</v>
+        <v>0.1222820317190667</v>
       </c>
       <c r="D4">
-        <v>0.04662787710640259</v>
+        <v>0.04769784703064062</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6666657529713902</v>
+        <v>0.6057407174751503</v>
       </c>
       <c r="G4">
-        <v>0.5935159342487566</v>
+        <v>0.5269576687315407</v>
       </c>
       <c r="H4">
-        <v>0.4544545417216028</v>
+        <v>1.901409296767298E-05</v>
       </c>
       <c r="I4">
-        <v>0.4932389717635317</v>
+        <v>0.0008255943889023953</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.4149703674090688</v>
       </c>
       <c r="K4">
-        <v>0.855995922981009</v>
+        <v>0.4039771641663492</v>
       </c>
       <c r="L4">
-        <v>0.3252507601787045</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.6013106011533722</v>
       </c>
       <c r="N4">
-        <v>0.9459460621371143</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>1.998478660369116</v>
+      </c>
+      <c r="P4">
+        <v>0.9822068156674639</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.9581710869640574</v>
+        <v>0.4951230591721867</v>
       </c>
       <c r="C5">
-        <v>0.08264054816623201</v>
+        <v>0.117950689664255</v>
       </c>
       <c r="D5">
-        <v>0.04586167305527056</v>
+        <v>0.0466372051111037</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.6566778261100836</v>
+        <v>0.594419775581045</v>
       </c>
       <c r="G5">
-        <v>0.585731457322737</v>
+        <v>0.5176427965840134</v>
       </c>
       <c r="H5">
-        <v>0.4526269699209848</v>
+        <v>7.274875419627236E-05</v>
       </c>
       <c r="I5">
-        <v>0.491103581660461</v>
+        <v>0.001061556730844515</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.4117736412555359</v>
       </c>
       <c r="K5">
-        <v>0.8200473317430976</v>
+        <v>0.4004839893345391</v>
       </c>
       <c r="L5">
-        <v>0.3136701743102464</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.5764553494113329</v>
       </c>
       <c r="N5">
-        <v>0.9576582757011494</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>1.915811797590607</v>
+      </c>
+      <c r="P5">
+        <v>0.9878509271758809</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9513504109793018</v>
+        <v>0.490650779171574</v>
       </c>
       <c r="C6">
-        <v>0.08237339300042379</v>
+        <v>0.1175681186293644</v>
       </c>
       <c r="D6">
-        <v>0.04573425128122466</v>
+        <v>0.04652348206251844</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.6550376242291875</v>
+        <v>0.591776774218296</v>
       </c>
       <c r="G6">
-        <v>0.5844568504556804</v>
+        <v>0.5152771108937912</v>
       </c>
       <c r="H6">
-        <v>0.4523344208643465</v>
+        <v>8.524212840876899E-05</v>
       </c>
       <c r="I6">
-        <v>0.4907623011209914</v>
+        <v>0.001196338724444246</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.4108249210952692</v>
       </c>
       <c r="K6">
-        <v>0.8140825635043143</v>
+        <v>0.3992777216839265</v>
       </c>
       <c r="L6">
-        <v>0.3117529149637761</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.5721582079089416</v>
       </c>
       <c r="N6">
-        <v>0.9596210339869522</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>1.902076716903281</v>
+      </c>
+      <c r="P6">
+        <v>0.988186014385505</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.9987386351816383</v>
+        <v>0.5148885685838707</v>
       </c>
       <c r="C7">
-        <v>0.08422673484286491</v>
+        <v>0.1231387211733193</v>
       </c>
       <c r="D7">
-        <v>0.04661755677610202</v>
+        <v>0.04785506446543764</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.6665298147956165</v>
+        <v>0.6034823470941006</v>
       </c>
       <c r="G7">
-        <v>0.5934097317791611</v>
+        <v>0.5245774765444935</v>
       </c>
       <c r="H7">
-        <v>0.4544291572947685</v>
+        <v>1.966145905551997E-05</v>
       </c>
       <c r="I7">
-        <v>0.4932092747788275</v>
+        <v>0.001065072706524006</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.4137749022189041</v>
       </c>
       <c r="K7">
-        <v>0.8555107968190896</v>
+        <v>0.4022122182120889</v>
       </c>
       <c r="L7">
-        <v>0.3250941930303384</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.600511291231399</v>
       </c>
       <c r="N7">
-        <v>0.9461028084032286</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>1.997321341348453</v>
+      </c>
+      <c r="P7">
+        <v>0.9806342862713073</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.209121979117327</v>
+        <v>0.6232726948034042</v>
       </c>
       <c r="C8">
-        <v>0.09238577176068929</v>
+        <v>0.1471835556442471</v>
       </c>
       <c r="D8">
-        <v>0.05048775540013395</v>
+        <v>0.05354984440863575</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.7200296260231767</v>
+        <v>0.6582173745176192</v>
       </c>
       <c r="G8">
-        <v>0.6356622723267122</v>
+        <v>0.5686401891933173</v>
       </c>
       <c r="H8">
-        <v>0.4653179055917747</v>
+        <v>0.0002592738807476458</v>
       </c>
       <c r="I8">
-        <v>0.5060158169809839</v>
+        <v>0.0007142682975969095</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.4284991796186262</v>
       </c>
       <c r="K8">
-        <v>1.039100541462432</v>
+        <v>0.417166439806639</v>
       </c>
       <c r="L8">
-        <v>0.3848597503932467</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.7259922566204295</v>
       </c>
       <c r="N8">
-        <v>0.8891163977886727</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>2.418910055629695</v>
+      </c>
+      <c r="P8">
+        <v>0.9496757541408449</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.627799437101061</v>
+        <v>0.8376565208876627</v>
       </c>
       <c r="C9">
-        <v>0.1083747286955159</v>
+        <v>0.1942128540178487</v>
       </c>
       <c r="D9">
-        <v>0.05798459315329296</v>
+        <v>0.0643608473355215</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.836297685890699</v>
+        <v>0.7738261027595996</v>
       </c>
       <c r="G9">
-        <v>0.7297212175191135</v>
+        <v>0.6628088045196279</v>
       </c>
       <c r="H9">
-        <v>0.4931848927314775</v>
+        <v>0.002933490291697094</v>
       </c>
       <c r="I9">
-        <v>0.539127104493609</v>
+        <v>0.001558593322392277</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.4618657402433684</v>
       </c>
       <c r="K9">
-        <v>1.403235281951169</v>
+        <v>0.4510923552179449</v>
       </c>
       <c r="L9">
-        <v>0.5059627390974697</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.9731232617419892</v>
       </c>
       <c r="N9">
-        <v>0.7875325908934236</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>3.253166219294499</v>
+      </c>
+      <c r="P9">
+        <v>0.8949305453613476</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.94074748910387</v>
+        <v>1.002125363127988</v>
       </c>
       <c r="C10">
-        <v>0.1201772322415451</v>
+        <v>0.2318531167215809</v>
       </c>
       <c r="D10">
-        <v>0.06344382825925265</v>
+        <v>0.07318612791383572</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9300082223025896</v>
+        <v>0.852205690644638</v>
       </c>
       <c r="G10">
-        <v>0.8070179306250083</v>
+        <v>0.7242292328505613</v>
       </c>
       <c r="H10">
-        <v>0.5182440898053073</v>
+        <v>0.006048292476129813</v>
       </c>
       <c r="I10">
-        <v>0.5691225915007578</v>
+        <v>0.003591835260473353</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.4828073792258465</v>
       </c>
       <c r="K10">
-        <v>1.674657357667769</v>
+        <v>0.4701920719921517</v>
       </c>
       <c r="L10">
-        <v>0.5980283010090375</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>1.165048370674924</v>
       </c>
       <c r="N10">
-        <v>0.7196820071856749</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>3.671000070871813</v>
+      </c>
+      <c r="P10">
+        <v>0.8475258337842391</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.084665686021026</v>
+        <v>1.15520968551607</v>
       </c>
       <c r="C11">
-        <v>0.1255737516670337</v>
+        <v>0.2632113970037722</v>
       </c>
       <c r="D11">
-        <v>0.06591873684069327</v>
+        <v>0.08487141511506735</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.974766826859792</v>
+        <v>0.8088986482377436</v>
       </c>
       <c r="G11">
-        <v>0.8442880521261173</v>
+        <v>0.6683864590952311</v>
       </c>
       <c r="H11">
-        <v>0.5307873919955455</v>
+        <v>0.02167306541798908</v>
       </c>
       <c r="I11">
-        <v>0.5841893662433151</v>
+        <v>0.004744167682569689</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.4503070883843492</v>
       </c>
       <c r="K11">
-        <v>1.79931302018872</v>
+        <v>0.4247868374749046</v>
       </c>
       <c r="L11">
-        <v>0.6407532977654711</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>1.341382812145667</v>
       </c>
       <c r="N11">
-        <v>0.6904285341699641</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>2.314309922727404</v>
+      </c>
+      <c r="P11">
+        <v>0.7612575320570514</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.13942215433417</v>
+        <v>1.257433273926125</v>
       </c>
       <c r="C12">
-        <v>0.1276226044722648</v>
+        <v>0.2806490301814506</v>
       </c>
       <c r="D12">
-        <v>0.06685485987939899</v>
+        <v>0.09308135926244887</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.9920513579798609</v>
+        <v>0.7597764977832497</v>
       </c>
       <c r="G12">
-        <v>0.8587338059658975</v>
+        <v>0.6134419966990521</v>
       </c>
       <c r="H12">
-        <v>0.5357150080711932</v>
+        <v>0.05876229800537658</v>
       </c>
       <c r="I12">
-        <v>0.5901163490107848</v>
+        <v>0.004895655771822049</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.4207152651489565</v>
       </c>
       <c r="K12">
-        <v>1.846716853475215</v>
+        <v>0.3866813240515299</v>
       </c>
       <c r="L12">
-        <v>0.6570687392233197</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1.454601349260116</v>
       </c>
       <c r="N12">
-        <v>0.6795957436480862</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>1.358953018260678</v>
+      </c>
+      <c r="P12">
+        <v>0.7145328929343453</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.127617335735181</v>
+        <v>1.321787005121394</v>
       </c>
       <c r="C13">
-        <v>0.1271810883985864</v>
+        <v>0.2895888730616036</v>
       </c>
       <c r="D13">
-        <v>0.06665329405167597</v>
+        <v>0.09925251640453325</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.988313417370037</v>
+        <v>0.6998781701459222</v>
       </c>
       <c r="G13">
-        <v>0.8556073809545808</v>
+        <v>0.5523437167318832</v>
       </c>
       <c r="H13">
-        <v>0.5346456303064571</v>
+        <v>0.113608872095611</v>
       </c>
       <c r="I13">
-        <v>0.5888297287729642</v>
+        <v>0.004579702241592543</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.3897406795720713</v>
       </c>
       <c r="K13">
-        <v>1.836498230988269</v>
+        <v>0.349200394606946</v>
       </c>
       <c r="L13">
-        <v>0.6535485977953073</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1.523641173444474</v>
       </c>
       <c r="N13">
-        <v>0.6819176698651397</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.6500457800151835</v>
+      </c>
+      <c r="P13">
+        <v>0.6916632063569437</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.089165163617281</v>
+        <v>1.348830038534459</v>
       </c>
       <c r="C14">
-        <v>0.1257421974435715</v>
+        <v>0.2923093357149185</v>
       </c>
       <c r="D14">
-        <v>0.0659957727749898</v>
+        <v>0.1027146300759796</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.9761819378391579</v>
+        <v>0.6529182510202176</v>
       </c>
       <c r="G14">
-        <v>0.8454696757815015</v>
+        <v>0.5067247173991944</v>
       </c>
       <c r="H14">
-        <v>0.5311891480507285</v>
+        <v>0.1626173871841559</v>
       </c>
       <c r="I14">
-        <v>0.5846724404855408</v>
+        <v>0.004244301292531283</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.3673366175014934</v>
       </c>
       <c r="K14">
-        <v>1.803208789910144</v>
+        <v>0.3231778067178013</v>
       </c>
       <c r="L14">
-        <v>0.6420927546612063</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>1.55167199163634</v>
       </c>
       <c r="N14">
-        <v>0.6895323281732324</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.2994543998270487</v>
+      </c>
+      <c r="P14">
+        <v>0.6875526936008258</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.065646719866209</v>
+        <v>1.345579094737502</v>
       </c>
       <c r="C15">
-        <v>0.1248615687316033</v>
+        <v>0.2915200861771439</v>
       </c>
       <c r="D15">
-        <v>0.06559288735618907</v>
+        <v>0.1031375201449762</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.9687956438807106</v>
+        <v>0.6384421774149942</v>
       </c>
       <c r="G15">
-        <v>0.8393042316742623</v>
+        <v>0.4934328244010118</v>
       </c>
       <c r="H15">
-        <v>0.52909551136527</v>
+        <v>0.1750512230833863</v>
       </c>
       <c r="I15">
-        <v>0.5821553596119458</v>
+        <v>0.004166760347412257</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.3611787530576862</v>
       </c>
       <c r="K15">
-        <v>1.782844922860477</v>
+        <v>0.3162983706391778</v>
       </c>
       <c r="L15">
-        <v>0.6350939515158274</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1.54812170769506</v>
       </c>
       <c r="N15">
-        <v>0.6942288193710091</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.2320921400784535</v>
+      </c>
+      <c r="P15">
+        <v>0.6896880413436772</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.931376259954192</v>
+        <v>1.257345697008418</v>
       </c>
       <c r="C16">
-        <v>0.1198252233064423</v>
+        <v>0.2734806743920615</v>
       </c>
       <c r="D16">
-        <v>0.06328192851957937</v>
+        <v>0.09790860356044817</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.9271284366996042</v>
+        <v>0.6160286663617569</v>
       </c>
       <c r="G16">
-        <v>0.8046271030926135</v>
+        <v>0.4786418191086597</v>
       </c>
       <c r="H16">
-        <v>0.5174484817593168</v>
+        <v>0.1620801461264136</v>
       </c>
       <c r="I16">
-        <v>0.5681679812845246</v>
+        <v>0.003382165035094253</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.357837553902101</v>
       </c>
       <c r="K16">
-        <v>1.666537087617598</v>
+        <v>0.3149904909726722</v>
       </c>
       <c r="L16">
-        <v>0.5952543650084721</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1.447754432344766</v>
       </c>
       <c r="N16">
-        <v>0.7216273226001633</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.2270681082539667</v>
+      </c>
+      <c r="P16">
+        <v>0.7114973355120462</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.849427683933953</v>
+        <v>1.175536616477331</v>
       </c>
       <c r="C17">
-        <v>0.1167435570755302</v>
+        <v>0.2583284463424178</v>
       </c>
       <c r="D17">
-        <v>0.06186215228749603</v>
+        <v>0.09208400491129254</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.9021324128226809</v>
+        <v>0.6237039070543346</v>
       </c>
       <c r="G17">
-        <v>0.7839137390828341</v>
+        <v>0.4913337335223105</v>
       </c>
       <c r="H17">
-        <v>0.5106054709387138</v>
+        <v>0.1241869652337755</v>
       </c>
       <c r="I17">
-        <v>0.5599630572481331</v>
+        <v>0.003014291721949114</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.3671505842360432</v>
       </c>
       <c r="K17">
-        <v>1.595509359176475</v>
+        <v>0.3276339869759965</v>
       </c>
       <c r="L17">
-        <v>0.5710405744173102</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>1.356263550474637</v>
       </c>
       <c r="N17">
-        <v>0.7388572862278231</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.3826250680345353</v>
+      </c>
+      <c r="P17">
+        <v>0.7298755984863479</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.802437358212075</v>
+        <v>1.093463724029249</v>
       </c>
       <c r="C18">
-        <v>0.1149735646930239</v>
+        <v>0.2431197511272956</v>
       </c>
       <c r="D18">
-        <v>0.06104472204012268</v>
+        <v>0.08508278916271195</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.887953895002795</v>
+        <v>0.6600855293971293</v>
       </c>
       <c r="G18">
-        <v>0.7721964400783747</v>
+        <v>0.5315651945429209</v>
       </c>
       <c r="H18">
-        <v>0.5067763539791059</v>
+        <v>0.07141391437942701</v>
       </c>
       <c r="I18">
-        <v>0.5553765197465026</v>
+        <v>0.00264791957898769</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.3895050016435562</v>
       </c>
       <c r="K18">
-        <v>1.554765694296975</v>
+        <v>0.3556830542063665</v>
       </c>
       <c r="L18">
-        <v>0.5571919083654961</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>1.263770226446155</v>
       </c>
       <c r="N18">
-        <v>0.7489184055412004</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.8193243208497165</v>
+      </c>
+      <c r="P18">
+        <v>0.7540561772090477</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.786551038056416</v>
+        <v>1.014249793473454</v>
       </c>
       <c r="C19">
-        <v>0.1143746658945304</v>
+        <v>0.2311723854454755</v>
       </c>
       <c r="D19">
-        <v>0.06076781017385713</v>
+        <v>0.07831863348935286</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.8831865356769555</v>
+        <v>0.7144836130828978</v>
       </c>
       <c r="G19">
-        <v>0.7682620525924904</v>
+        <v>0.5891592466328603</v>
       </c>
       <c r="H19">
-        <v>0.5054978362757083</v>
+        <v>0.02684337627911049</v>
       </c>
       <c r="I19">
-        <v>0.5538458916639613</v>
+        <v>0.002822084371359779</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.4195171765815644</v>
       </c>
       <c r="K19">
-        <v>1.54098856397718</v>
+        <v>0.3929453451734446</v>
       </c>
       <c r="L19">
-        <v>0.5525160241537748</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>1.177897746665849</v>
       </c>
       <c r="N19">
-        <v>0.7523504634510445</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>1.647762527193549</v>
+      </c>
+      <c r="P19">
+        <v>0.7896454935184565</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.858136074870373</v>
+        <v>0.9524260623129237</v>
       </c>
       <c r="C20">
-        <v>0.1170713374977055</v>
+        <v>0.2248847752257177</v>
       </c>
       <c r="D20">
-        <v>0.06201337290789866</v>
+        <v>0.07146628795646137</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.9047725299448501</v>
+        <v>0.8244256485814105</v>
       </c>
       <c r="G20">
-        <v>0.7860981718680335</v>
+        <v>0.7004680705130824</v>
       </c>
       <c r="H20">
-        <v>0.5113227746614655</v>
+        <v>0.005089523478594149</v>
       </c>
       <c r="I20">
-        <v>0.5608226299801018</v>
+        <v>0.003665727360536941</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.4734259451058449</v>
       </c>
       <c r="K20">
-        <v>1.603058834641558</v>
+        <v>0.4595328577775319</v>
       </c>
       <c r="L20">
-        <v>0.5736099473831757</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>1.113436503985895</v>
       </c>
       <c r="N20">
-        <v>0.7370074182786119</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>3.552409067447797</v>
+      </c>
+      <c r="P20">
+        <v>0.8547667208383913</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.100452219114857</v>
+        <v>1.065739978057167</v>
       </c>
       <c r="C21">
-        <v>0.1261646791328701</v>
+        <v>0.2515305604239302</v>
       </c>
       <c r="D21">
-        <v>0.06618893047701846</v>
+        <v>0.07689069065514786</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.9797359000633463</v>
+        <v>0.9010221767251068</v>
       </c>
       <c r="G21">
-        <v>0.8484381001772334</v>
+        <v>0.764892435479041</v>
       </c>
       <c r="H21">
-        <v>0.5321994659459079</v>
+        <v>0.008841347690041301</v>
       </c>
       <c r="I21">
-        <v>0.5858873820661401</v>
+        <v>0.005631701646398923</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.4982472171692223</v>
       </c>
       <c r="K21">
-        <v>1.812981049307297</v>
+        <v>0.4852414519211976</v>
       </c>
       <c r="L21">
-        <v>0.6454537855201039</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>1.246021971070377</v>
       </c>
       <c r="N21">
-        <v>0.6872889638692214</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>4.189284498020044</v>
+      </c>
+      <c r="P21">
+        <v>0.8335632037711846</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.260340020420983</v>
+        <v>1.147160297842248</v>
       </c>
       <c r="C22">
-        <v>0.1321393628212348</v>
+        <v>0.2687487047931683</v>
       </c>
       <c r="D22">
-        <v>0.06891173784725169</v>
+        <v>0.08061192560812458</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.030699098507981</v>
+        <v>0.9501486998439646</v>
       </c>
       <c r="G22">
-        <v>0.8911334257576158</v>
+        <v>0.8058358564092742</v>
       </c>
       <c r="H22">
-        <v>0.5468865173078967</v>
+        <v>0.01145391172172378</v>
       </c>
       <c r="I22">
-        <v>0.6035687453779914</v>
+        <v>0.00692908914408541</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.5139451827784711</v>
       </c>
       <c r="K22">
-        <v>1.95135506294605</v>
+        <v>0.5014381325814483</v>
       </c>
       <c r="L22">
-        <v>0.6932108429199246</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>1.338652776581995</v>
       </c>
       <c r="N22">
-        <v>0.6562291395985866</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>4.505063282862636</v>
+      </c>
+      <c r="P22">
+        <v>0.8177769043051271</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.1748538733288</v>
+        <v>1.106339641315287</v>
       </c>
       <c r="C23">
-        <v>0.1289471845570915</v>
+        <v>0.2584043863946306</v>
       </c>
       <c r="D23">
-        <v>0.0674590330473066</v>
+        <v>0.07841000215197624</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.003308539407641</v>
+        <v>0.9263452476457985</v>
       </c>
       <c r="G23">
-        <v>0.8681571732378757</v>
+        <v>0.7865823456855594</v>
       </c>
       <c r="H23">
-        <v>0.5389476731972564</v>
+        <v>0.01002436990518507</v>
       </c>
       <c r="I23">
-        <v>0.5940069148926028</v>
+        <v>0.005940205739014992</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.5068757359370295</v>
       </c>
       <c r="K23">
-        <v>1.877384246934781</v>
+        <v>0.4947798825172995</v>
       </c>
       <c r="L23">
-        <v>0.6676432492430422</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>1.289767960086664</v>
       </c>
       <c r="N23">
-        <v>0.6726705560030695</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>4.336357375124379</v>
+      </c>
+      <c r="P23">
+        <v>0.8279176832764321</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.854198630737272</v>
+        <v>0.9474221350589289</v>
       </c>
       <c r="C24">
-        <v>0.1169231427788944</v>
+        <v>0.221647656036339</v>
       </c>
       <c r="D24">
-        <v>0.06194500975857409</v>
+        <v>0.07041630431874069</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.9035783370497228</v>
+        <v>0.8340467801909455</v>
       </c>
       <c r="G24">
-        <v>0.7851099967930253</v>
+        <v>0.7110189874374697</v>
       </c>
       <c r="H24">
-        <v>0.510998155522131</v>
+        <v>0.005414080809618804</v>
       </c>
       <c r="I24">
-        <v>0.5604336116885662</v>
+        <v>0.003230308231539247</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.478849990952483</v>
       </c>
       <c r="K24">
-        <v>1.599645435131833</v>
+        <v>0.46703907522501</v>
       </c>
       <c r="L24">
-        <v>0.5724481102129744</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>1.10432204786278</v>
       </c>
       <c r="N24">
-        <v>0.7378432605676402</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>3.70217754004058</v>
+      </c>
+      <c r="P24">
+        <v>0.8646352224034857</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.513721151696984</v>
+        <v>0.7758989089644217</v>
       </c>
       <c r="C25">
-        <v>0.1040443580057513</v>
+        <v>0.1829856518788517</v>
       </c>
       <c r="D25">
-        <v>0.05596565342998616</v>
+        <v>0.06176036890704495</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.803493077500903</v>
+        <v>0.7381829795482062</v>
       </c>
       <c r="G25">
-        <v>0.7029415831585055</v>
+        <v>0.6327882908066158</v>
       </c>
       <c r="H25">
-        <v>0.4848879512027224</v>
+        <v>0.001941709757617982</v>
       </c>
       <c r="I25">
-        <v>0.5292348486721181</v>
+        <v>0.001500844097954257</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.4504782870057795</v>
       </c>
       <c r="K25">
-        <v>1.304149673999945</v>
+        <v>0.4386314834676242</v>
       </c>
       <c r="L25">
-        <v>0.4727127737387065</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.905323013227445</v>
       </c>
       <c r="N25">
-        <v>0.8138674519236346</v>
+        <v>0</v>
       </c>
       <c r="O25">
+        <v>3.026290345890345</v>
+      </c>
+      <c r="P25">
+        <v>0.90656020987511</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_51/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_51/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6555536657392338</v>
+        <v>0.606044246689379</v>
       </c>
       <c r="C2">
-        <v>0.1524875207887106</v>
+        <v>0.1701166007655672</v>
       </c>
       <c r="D2">
-        <v>0.0548428217134429</v>
+        <v>0.05873942613315819</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.6763042035005995</v>
+        <v>0.6179495361282861</v>
       </c>
       <c r="G2">
-        <v>0.5839945268081976</v>
+        <v>0.5024988632941358</v>
       </c>
       <c r="H2">
-        <v>0.0004637168192100916</v>
+        <v>0.0004881498089392977</v>
       </c>
       <c r="I2">
-        <v>0.0004481698038505399</v>
+        <v>0.0005972305635637554</v>
       </c>
       <c r="J2">
-        <v>0.4342654467303788</v>
+        <v>0.4350938874043067</v>
       </c>
       <c r="K2">
-        <v>0.4237346190690445</v>
+        <v>0.3706925797263665</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.188869692684122</v>
       </c>
       <c r="M2">
-        <v>0.7606548463394631</v>
+        <v>0.09882013433934489</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>2.533602377890162</v>
+        <v>0.7506288039429734</v>
       </c>
       <c r="P2">
-        <v>0.9437471068283898</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>2.535155676423599</v>
+      </c>
+      <c r="R2">
+        <v>0.8885793168648775</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.570080819776166</v>
+        <v>0.5310170766383919</v>
       </c>
       <c r="C3">
-        <v>0.133670452505072</v>
+        <v>0.1466845237425076</v>
       </c>
       <c r="D3">
-        <v>0.05042045617217639</v>
+        <v>0.05322526379861614</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.6322685078229568</v>
+        <v>0.5817941237923208</v>
       </c>
       <c r="G3">
-        <v>0.548397395113696</v>
+        <v>0.4763160962072561</v>
       </c>
       <c r="H3">
-        <v>3.216708273523494E-05</v>
+        <v>4.176662007537857E-05</v>
       </c>
       <c r="I3">
-        <v>0.0005458970482021819</v>
+        <v>0.0005206807289006576</v>
       </c>
       <c r="J3">
-        <v>0.4221344979644499</v>
+        <v>0.4236992925690117</v>
       </c>
       <c r="K3">
-        <v>0.4113859743439647</v>
+        <v>0.3637989636582724</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1916294135848915</v>
       </c>
       <c r="M3">
-        <v>0.6619384796186978</v>
+        <v>0.09203651610950558</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>2.201628237936305</v>
+        <v>0.6547427131765318</v>
       </c>
       <c r="P3">
-        <v>0.9673493841678429</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>2.203632211384488</v>
+      </c>
+      <c r="R3">
+        <v>0.9148209515595802</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5173285413252415</v>
+        <v>0.4845074765809443</v>
       </c>
       <c r="C4">
-        <v>0.1222820317190667</v>
+        <v>0.1325553484452939</v>
       </c>
       <c r="D4">
-        <v>0.04769784703064062</v>
+        <v>0.04984695982749798</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.6057407174751503</v>
+        <v>0.5599279782735564</v>
       </c>
       <c r="G4">
-        <v>0.5269576687315407</v>
+        <v>0.4606147337271693</v>
       </c>
       <c r="H4">
-        <v>1.901409296767298E-05</v>
+        <v>1.173146736510589E-05</v>
       </c>
       <c r="I4">
-        <v>0.0008255943889023953</v>
+        <v>0.0006487436774387234</v>
       </c>
       <c r="J4">
-        <v>0.4149703674090688</v>
+        <v>0.416733790972259</v>
       </c>
       <c r="K4">
-        <v>0.4039771641663492</v>
+        <v>0.3596237267302911</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1932897640074707</v>
       </c>
       <c r="M4">
-        <v>0.6013106011533722</v>
+        <v>0.08846031078161154</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>1.998478660369116</v>
+        <v>0.5957605020844312</v>
       </c>
       <c r="P4">
-        <v>0.9822068156674639</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>2.000708322743364</v>
+      </c>
+      <c r="R4">
+        <v>0.9312600219301927</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4951230591721867</v>
+        <v>0.464843298140309</v>
       </c>
       <c r="C5">
-        <v>0.117950689664255</v>
+        <v>0.1271523977832771</v>
       </c>
       <c r="D5">
-        <v>0.0466372051111037</v>
+        <v>0.04852560011297413</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.594419775581045</v>
+        <v>0.5505050705239611</v>
       </c>
       <c r="G5">
-        <v>0.5176427965840134</v>
+        <v>0.4536864031425978</v>
       </c>
       <c r="H5">
-        <v>7.274875419627236E-05</v>
+        <v>5.676238827456714E-05</v>
       </c>
       <c r="I5">
-        <v>0.001061556730844515</v>
+        <v>0.0008242034170988788</v>
       </c>
       <c r="J5">
-        <v>0.4117736412555359</v>
+        <v>0.4135702210666494</v>
       </c>
       <c r="K5">
-        <v>0.4004839893345391</v>
+        <v>0.3574734834109847</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1937370607888163</v>
       </c>
       <c r="M5">
-        <v>0.5764553494113329</v>
+        <v>0.08702200890704859</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>1.915811797590607</v>
+        <v>0.5715595145751564</v>
       </c>
       <c r="P5">
-        <v>0.9878509271758809</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>1.918122825788274</v>
+      </c>
+      <c r="R5">
+        <v>0.9376187974522416</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.490650779171574</v>
+        <v>0.4608380701964876</v>
       </c>
       <c r="C6">
-        <v>0.1175681186293644</v>
+        <v>0.126620762624114</v>
       </c>
       <c r="D6">
-        <v>0.04652348206251844</v>
+        <v>0.04837233130020735</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.591776774218296</v>
+        <v>0.5482250442935523</v>
       </c>
       <c r="G6">
-        <v>0.5152771108937912</v>
+        <v>0.4517883656820629</v>
       </c>
       <c r="H6">
-        <v>8.524212840876899E-05</v>
+        <v>6.768460653283626E-05</v>
       </c>
       <c r="I6">
-        <v>0.001196338724444246</v>
+        <v>0.0009643159294387971</v>
       </c>
       <c r="J6">
-        <v>0.4108249210952692</v>
+        <v>0.4126401694229429</v>
       </c>
       <c r="K6">
-        <v>0.3992777216839265</v>
+        <v>0.3565540686594026</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.193542109887396</v>
       </c>
       <c r="M6">
-        <v>0.5721582079089416</v>
+        <v>0.08663546766768349</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>1.902076716903281</v>
+        <v>0.5673758854510851</v>
       </c>
       <c r="P6">
-        <v>0.988186014385505</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>1.90440143284242</v>
+      </c>
+      <c r="R6">
+        <v>0.9381694461364134</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.5148885685838707</v>
+        <v>0.4817722237756215</v>
       </c>
       <c r="C7">
-        <v>0.1231387211733193</v>
+        <v>0.1330568780602448</v>
       </c>
       <c r="D7">
-        <v>0.04785506446543764</v>
+        <v>0.05013150987273463</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.6034823470941006</v>
+        <v>0.5565683026919075</v>
       </c>
       <c r="G7">
-        <v>0.5245774765444935</v>
+        <v>0.4613774887237128</v>
       </c>
       <c r="H7">
-        <v>1.966145905551997E-05</v>
+        <v>1.229149368509042E-05</v>
       </c>
       <c r="I7">
-        <v>0.001065072706524006</v>
+        <v>0.0009301864872979237</v>
       </c>
       <c r="J7">
-        <v>0.4137749022189041</v>
+        <v>0.4104109619531329</v>
       </c>
       <c r="K7">
-        <v>0.4022122182120889</v>
+        <v>0.3574111700924583</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1922765226043772</v>
       </c>
       <c r="M7">
-        <v>0.600511291231399</v>
+        <v>0.08781029182537914</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>1.997321341348453</v>
+        <v>0.5940218586284374</v>
       </c>
       <c r="P7">
-        <v>0.9806342862713073</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>1.99953262233231</v>
+      </c>
+      <c r="R7">
+        <v>0.9292975447442196</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.6232726948034042</v>
+        <v>0.5760432936171185</v>
       </c>
       <c r="C8">
-        <v>0.1471835556442471</v>
+        <v>0.1619027506862238</v>
       </c>
       <c r="D8">
-        <v>0.05354984440863575</v>
+        <v>0.05749286206412307</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.6582173745176192</v>
+        <v>0.598615562778491</v>
       </c>
       <c r="G8">
-        <v>0.5686401891933173</v>
+        <v>0.500427541657487</v>
       </c>
       <c r="H8">
-        <v>0.0002592738807476458</v>
+        <v>0.0002793641421514614</v>
       </c>
       <c r="I8">
-        <v>0.0007142682975969095</v>
+        <v>0.0008650216341088424</v>
       </c>
       <c r="J8">
-        <v>0.4284991796186262</v>
+        <v>0.4127756169144305</v>
       </c>
       <c r="K8">
-        <v>0.417166439806639</v>
+        <v>0.3641617375850394</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1880356380195458</v>
       </c>
       <c r="M8">
-        <v>0.7259922566204295</v>
+        <v>0.0950219487968873</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>2.418910055629695</v>
+        <v>0.7137497567938738</v>
       </c>
       <c r="P8">
-        <v>0.9496757541408449</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>2.420557018268639</v>
+      </c>
+      <c r="R8">
+        <v>0.8936937741820614</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.8376565208876627</v>
+        <v>0.7627281503913821</v>
       </c>
       <c r="C9">
-        <v>0.1942128540178487</v>
+        <v>0.2204627285275791</v>
       </c>
       <c r="D9">
-        <v>0.0643608473355215</v>
+        <v>0.07123017055380387</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.7738261027595996</v>
+        <v>0.6921681609599943</v>
       </c>
       <c r="G9">
-        <v>0.6628088045196279</v>
+        <v>0.5733978233692767</v>
       </c>
       <c r="H9">
-        <v>0.002933490291697094</v>
+        <v>0.002937724598859326</v>
       </c>
       <c r="I9">
-        <v>0.001558593322392277</v>
+        <v>0.001806591908779964</v>
       </c>
       <c r="J9">
-        <v>0.4618657402433684</v>
+        <v>0.4380497714547715</v>
       </c>
       <c r="K9">
-        <v>0.4510923552179449</v>
+        <v>0.3830220139800957</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1817129766513332</v>
       </c>
       <c r="M9">
-        <v>0.9731232617419892</v>
+        <v>0.1154757512769997</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>3.253166219294499</v>
+        <v>0.9522450717543904</v>
       </c>
       <c r="P9">
-        <v>0.8949305453613476</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>3.253294459125769</v>
+      </c>
+      <c r="R9">
+        <v>0.8313903057664014</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.002125363127988</v>
+        <v>0.903560560204852</v>
       </c>
       <c r="C10">
-        <v>0.2318531167215809</v>
+        <v>0.2642683618495454</v>
       </c>
       <c r="D10">
-        <v>0.07318612791383572</v>
+        <v>0.08306828329780558</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.852205690644638</v>
+        <v>0.747448325256542</v>
       </c>
       <c r="G10">
-        <v>0.7242292328505613</v>
+        <v>0.6382341672353391</v>
       </c>
       <c r="H10">
-        <v>0.006048292476129813</v>
+        <v>0.005985892996749342</v>
       </c>
       <c r="I10">
-        <v>0.003591835260473353</v>
+        <v>0.003633642456380315</v>
       </c>
       <c r="J10">
-        <v>0.4828073792258465</v>
+        <v>0.4242229044256334</v>
       </c>
       <c r="K10">
-        <v>0.4701920719921517</v>
+        <v>0.3882666962522663</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.173684291008815</v>
       </c>
       <c r="M10">
-        <v>1.165048370674924</v>
+        <v>0.1298373164849949</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>3.671000070871813</v>
+        <v>1.131443920609144</v>
       </c>
       <c r="P10">
-        <v>0.8475258337842391</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>3.669546354323813</v>
+      </c>
+      <c r="R10">
+        <v>0.7779848587362608</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.15520968551607</v>
+        <v>1.044519935542411</v>
       </c>
       <c r="C11">
-        <v>0.2632113970037722</v>
+        <v>0.2915614750605897</v>
       </c>
       <c r="D11">
-        <v>0.08487141511506735</v>
+        <v>0.09774037969776117</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8088986482377436</v>
+        <v>0.6941451142997863</v>
       </c>
       <c r="G11">
-        <v>0.6683864590952311</v>
+        <v>0.6261186958662961</v>
       </c>
       <c r="H11">
-        <v>0.02167306541798908</v>
+        <v>0.02161070765601991</v>
       </c>
       <c r="I11">
-        <v>0.004744167682569689</v>
+        <v>0.004740205900596983</v>
       </c>
       <c r="J11">
-        <v>0.4503070883843492</v>
+        <v>0.3445857381416317</v>
       </c>
       <c r="K11">
-        <v>0.4247868374749046</v>
+        <v>0.3432878355539941</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1537537079666649</v>
       </c>
       <c r="M11">
-        <v>1.341382812145667</v>
+        <v>0.1172737851655405</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>2.314309922727404</v>
+        <v>1.291682918794322</v>
       </c>
       <c r="P11">
-        <v>0.7612575320570514</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>2.312873923186615</v>
+      </c>
+      <c r="R11">
+        <v>0.7114778749097432</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.257433273926125</v>
+        <v>1.143179601445866</v>
       </c>
       <c r="C12">
-        <v>0.2806490301814506</v>
+        <v>0.3053435564476672</v>
       </c>
       <c r="D12">
-        <v>0.09308135926244887</v>
+        <v>0.1073743558407187</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.7597764977832497</v>
+        <v>0.6460606172603889</v>
       </c>
       <c r="G12">
-        <v>0.6134419966990521</v>
+        <v>0.5944258260466739</v>
       </c>
       <c r="H12">
-        <v>0.05876229800537658</v>
+        <v>0.05871741478581782</v>
       </c>
       <c r="I12">
-        <v>0.004895655771822049</v>
+        <v>0.004845158186372878</v>
       </c>
       <c r="J12">
-        <v>0.4207152651489565</v>
+        <v>0.3030421243400028</v>
       </c>
       <c r="K12">
-        <v>0.3866813240515299</v>
+        <v>0.3104814681195442</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.1412199874755729</v>
       </c>
       <c r="M12">
-        <v>1.454601349260116</v>
+        <v>0.1056704771590304</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1.358953018260678</v>
+        <v>1.397136904921211</v>
       </c>
       <c r="P12">
-        <v>0.7145328929343453</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>1.357936154439869</v>
+      </c>
+      <c r="R12">
+        <v>0.6846788075779303</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.321787005121394</v>
+        <v>1.212582420562256</v>
       </c>
       <c r="C13">
-        <v>0.2895888730616036</v>
+        <v>0.3122889024966753</v>
       </c>
       <c r="D13">
-        <v>0.09925251640453325</v>
+        <v>0.1132657224807474</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.6998781701459222</v>
+        <v>0.5983255829448311</v>
       </c>
       <c r="G13">
-        <v>0.5523437167318832</v>
+        <v>0.5358984791941168</v>
       </c>
       <c r="H13">
-        <v>0.113608872095611</v>
+        <v>0.1135857444508446</v>
       </c>
       <c r="I13">
-        <v>0.004579702241592543</v>
+        <v>0.004578419412763601</v>
       </c>
       <c r="J13">
-        <v>0.3897406795720713</v>
+        <v>0.2885913706716892</v>
       </c>
       <c r="K13">
-        <v>0.349200394606946</v>
+        <v>0.2833476821247523</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.1324050190419577</v>
       </c>
       <c r="M13">
-        <v>1.523641173444474</v>
+        <v>0.09387244859192734</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0.6500457800151835</v>
+        <v>1.468113172664346</v>
       </c>
       <c r="P13">
-        <v>0.6916632063569437</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.6495299864630226</v>
+      </c>
+      <c r="R13">
+        <v>0.6807349231252076</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.348830038534459</v>
+        <v>1.247285131678154</v>
       </c>
       <c r="C14">
-        <v>0.2923093357149185</v>
+        <v>0.3143981865837873</v>
       </c>
       <c r="D14">
-        <v>0.1027146300759796</v>
+        <v>0.1157027528716412</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.6529182510202176</v>
+        <v>0.5643070890021704</v>
       </c>
       <c r="G14">
-        <v>0.5067247173991944</v>
+        <v>0.4842018047451404</v>
       </c>
       <c r="H14">
-        <v>0.1626173871841559</v>
+        <v>0.1626064520917225</v>
       </c>
       <c r="I14">
-        <v>0.004244301292531283</v>
+        <v>0.004329221342061373</v>
       </c>
       <c r="J14">
-        <v>0.3673366175014934</v>
+        <v>0.2882814543200993</v>
       </c>
       <c r="K14">
-        <v>0.3231778067178013</v>
+        <v>0.2663684243926845</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.1275435145308723</v>
       </c>
       <c r="M14">
-        <v>1.55167199163634</v>
+        <v>0.08549835009970863</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0.2994543998270487</v>
+        <v>1.502093316791957</v>
       </c>
       <c r="P14">
-        <v>0.6875526936008258</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.2992177131208678</v>
+      </c>
+      <c r="R14">
+        <v>0.6877092368746816</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.345579094737502</v>
+        <v>1.24771403421849</v>
       </c>
       <c r="C15">
-        <v>0.2915200861771439</v>
+        <v>0.3138072776365277</v>
       </c>
       <c r="D15">
-        <v>0.1031375201449762</v>
+        <v>0.1155270313367538</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.6384421774149942</v>
+        <v>0.5549819401533895</v>
       </c>
       <c r="G15">
-        <v>0.4934328244010118</v>
+        <v>0.4663563645683695</v>
       </c>
       <c r="H15">
-        <v>0.1750512230833863</v>
+        <v>0.1750435030112101</v>
       </c>
       <c r="I15">
-        <v>0.004166760347412257</v>
+        <v>0.004313421826782182</v>
       </c>
       <c r="J15">
-        <v>0.3611787530576862</v>
+        <v>0.2922098467750729</v>
       </c>
       <c r="K15">
-        <v>0.3162983706391778</v>
+        <v>0.2625872145258086</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.1267491506798937</v>
       </c>
       <c r="M15">
-        <v>1.54812170769506</v>
+        <v>0.08317761724368111</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.2320921400784535</v>
+        <v>1.501985403411851</v>
       </c>
       <c r="P15">
-        <v>0.6896880413436772</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.2319177737540201</v>
+      </c>
+      <c r="R15">
+        <v>0.6918712163507728</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.257345697008418</v>
+        <v>1.174441646851278</v>
       </c>
       <c r="C16">
-        <v>0.2734806743920615</v>
+        <v>0.298079801368857</v>
       </c>
       <c r="D16">
-        <v>0.09790860356044817</v>
+        <v>0.1073947566427265</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.6160286663617569</v>
+        <v>0.5493994354740224</v>
       </c>
       <c r="G16">
-        <v>0.4786418191086597</v>
+        <v>0.4265259284448888</v>
       </c>
       <c r="H16">
-        <v>0.1620801461264136</v>
+        <v>0.1620792591245817</v>
       </c>
       <c r="I16">
-        <v>0.003382165035094253</v>
+        <v>0.003706104519521247</v>
       </c>
       <c r="J16">
-        <v>0.357837553902101</v>
+        <v>0.3304092948228217</v>
       </c>
       <c r="K16">
-        <v>0.3149904909726722</v>
+        <v>0.26873811120619</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.1315855051019241</v>
       </c>
       <c r="M16">
-        <v>1.447754432344766</v>
+        <v>0.0815476355168876</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.2270681082539667</v>
+        <v>1.417865217784623</v>
       </c>
       <c r="P16">
-        <v>0.7114973355120462</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.2269903385497116</v>
+      </c>
+      <c r="R16">
+        <v>0.7089214408945175</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.175536616477331</v>
+        <v>1.098763438506381</v>
       </c>
       <c r="C17">
-        <v>0.2583284463424178</v>
+        <v>0.2841558015406065</v>
       </c>
       <c r="D17">
-        <v>0.09208400491129254</v>
+        <v>0.1002737603287258</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.6237039070543346</v>
+        <v>0.561840098613466</v>
       </c>
       <c r="G17">
-        <v>0.4913337335223105</v>
+        <v>0.4264444236717679</v>
       </c>
       <c r="H17">
-        <v>0.1241869652337755</v>
+        <v>0.1241867776919179</v>
       </c>
       <c r="I17">
-        <v>0.003014291721949114</v>
+        <v>0.003413969591783861</v>
       </c>
       <c r="J17">
-        <v>0.3671505842360432</v>
+        <v>0.3570504963614525</v>
       </c>
       <c r="K17">
-        <v>0.3276339869759965</v>
+        <v>0.2820548107173657</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1380399002481845</v>
       </c>
       <c r="M17">
-        <v>1.356263550474637</v>
+        <v>0.08435969878385663</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.3826250680345353</v>
+        <v>1.333323491990967</v>
       </c>
       <c r="P17">
-        <v>0.7298755984863479</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.38258609130569</v>
+      </c>
+      <c r="R17">
+        <v>0.7199809601067244</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.093463724029249</v>
+        <v>1.017369223867036</v>
       </c>
       <c r="C18">
-        <v>0.2431197511272956</v>
+        <v>0.2703428224829736</v>
       </c>
       <c r="D18">
-        <v>0.08508278916271195</v>
+        <v>0.09276722406408311</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.6600855293971293</v>
+        <v>0.5955577316860854</v>
       </c>
       <c r="G18">
-        <v>0.5315651945429209</v>
+        <v>0.4559186558237371</v>
       </c>
       <c r="H18">
-        <v>0.07141391437942701</v>
+        <v>0.07141359141097325</v>
       </c>
       <c r="I18">
-        <v>0.00264791957898769</v>
+        <v>0.003022683070409649</v>
       </c>
       <c r="J18">
-        <v>0.3895050016435562</v>
+        <v>0.3843646209134732</v>
       </c>
       <c r="K18">
-        <v>0.3556830542063665</v>
+        <v>0.3058310593690479</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1477295747218648</v>
       </c>
       <c r="M18">
-        <v>1.263770226446155</v>
+        <v>0.09219140606301934</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.8193243208497165</v>
+        <v>1.243303490509419</v>
       </c>
       <c r="P18">
-        <v>0.7540561772090477</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.8193027281866065</v>
+      </c>
+      <c r="R18">
+        <v>0.7327746832822402</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.014249793473454</v>
+        <v>0.935607014432378</v>
       </c>
       <c r="C19">
-        <v>0.2311723854454755</v>
+        <v>0.2603248177317141</v>
       </c>
       <c r="D19">
-        <v>0.07831863348935286</v>
+        <v>0.08596328255288199</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.7144836130828978</v>
+        <v>0.6425219023634909</v>
       </c>
       <c r="G19">
-        <v>0.5891592466328603</v>
+        <v>0.5027664570655475</v>
       </c>
       <c r="H19">
-        <v>0.02684337627911049</v>
+        <v>0.02684108966214893</v>
       </c>
       <c r="I19">
-        <v>0.002822084371359779</v>
+        <v>0.003213516455137011</v>
       </c>
       <c r="J19">
-        <v>0.4195171765815644</v>
+        <v>0.4121880222383396</v>
       </c>
       <c r="K19">
-        <v>0.3929453451734446</v>
+        <v>0.335545862626784</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1590360081039357</v>
       </c>
       <c r="M19">
-        <v>1.177897746665849</v>
+        <v>0.1031870839036735</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>1.647762527193549</v>
+        <v>1.157390498562506</v>
       </c>
       <c r="P19">
-        <v>0.7896454935184565</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>1.647676945738894</v>
+      </c>
+      <c r="R19">
+        <v>0.7534211397222084</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9524260623129237</v>
+        <v>0.8624220553801649</v>
       </c>
       <c r="C20">
-        <v>0.2248847752257177</v>
+        <v>0.2575454860970581</v>
       </c>
       <c r="D20">
-        <v>0.07146628795646137</v>
+        <v>0.0801241067887446</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.8244256485814105</v>
+        <v>0.7309729217998182</v>
       </c>
       <c r="G20">
-        <v>0.7004680705130824</v>
+        <v>0.6034911073369358</v>
       </c>
       <c r="H20">
-        <v>0.005089523478594149</v>
+        <v>0.00505291536790331</v>
       </c>
       <c r="I20">
-        <v>0.003665727360536941</v>
+        <v>0.003961243099963596</v>
       </c>
       <c r="J20">
-        <v>0.4734259451058449</v>
+        <v>0.4418556076001607</v>
       </c>
       <c r="K20">
-        <v>0.4595328577775319</v>
+        <v>0.3843364935177007</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1748410100710167</v>
       </c>
       <c r="M20">
-        <v>1.113436503985895</v>
+        <v>0.1249213295514018</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>3.552409067447797</v>
+        <v>1.086919380627563</v>
       </c>
       <c r="P20">
-        <v>0.8547667208383913</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>3.551504493363794</v>
+      </c>
+      <c r="R20">
+        <v>0.7900266414629016</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.065739978057167</v>
+        <v>0.9474417959617654</v>
       </c>
       <c r="C21">
-        <v>0.2515305604239302</v>
+        <v>0.2809441271745357</v>
       </c>
       <c r="D21">
-        <v>0.07689069065514786</v>
+        <v>0.09044233741715857</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.9010221767251068</v>
+        <v>0.7632560724866551</v>
       </c>
       <c r="G21">
-        <v>0.764892435479041</v>
+        <v>0.7274255164850416</v>
       </c>
       <c r="H21">
-        <v>0.008841347690041301</v>
+        <v>0.008699622177045563</v>
       </c>
       <c r="I21">
-        <v>0.005631701646398923</v>
+        <v>0.005530508049345961</v>
       </c>
       <c r="J21">
-        <v>0.4982472171692223</v>
+        <v>0.354678838506274</v>
       </c>
       <c r="K21">
-        <v>0.4852414519211976</v>
+        <v>0.3851707254209629</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.167769790875461</v>
       </c>
       <c r="M21">
-        <v>1.246021971070377</v>
+        <v>0.1352430382678165</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>4.189284498020044</v>
+        <v>1.190288579683482</v>
       </c>
       <c r="P21">
-        <v>0.8335632037711846</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>4.186316701333013</v>
+      </c>
+      <c r="R21">
+        <v>0.7493395275904042</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.147160297842248</v>
+        <v>1.009219190695887</v>
       </c>
       <c r="C22">
-        <v>0.2687487047931683</v>
+        <v>0.2951708521166267</v>
       </c>
       <c r="D22">
-        <v>0.08061192560812458</v>
+        <v>0.09767084713388385</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.9501486998439646</v>
+        <v>0.7814581009842243</v>
       </c>
       <c r="G22">
-        <v>0.8058358564092742</v>
+        <v>0.8165116712036848</v>
       </c>
       <c r="H22">
-        <v>0.01145391172172378</v>
+        <v>0.01122442293750525</v>
       </c>
       <c r="I22">
-        <v>0.00692908914408541</v>
+        <v>0.006406425499356772</v>
       </c>
       <c r="J22">
-        <v>0.5139451827784711</v>
+        <v>0.3011129014675689</v>
       </c>
       <c r="K22">
-        <v>0.5014381325814483</v>
+        <v>0.384316872151544</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.1628036821260679</v>
       </c>
       <c r="M22">
-        <v>1.338652776581995</v>
+        <v>0.1417254540920183</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>4.505063282862636</v>
+        <v>1.261866461226845</v>
       </c>
       <c r="P22">
-        <v>0.8177769043051271</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>4.500607945965271</v>
+      </c>
+      <c r="R22">
+        <v>0.72120943907343</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.106339641315287</v>
+        <v>0.9799618356983331</v>
       </c>
       <c r="C23">
-        <v>0.2584043863946306</v>
+        <v>0.2874947616645329</v>
       </c>
       <c r="D23">
-        <v>0.07841000215197624</v>
+        <v>0.0931891867716601</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.9263452476457985</v>
+        <v>0.7772558261324463</v>
       </c>
       <c r="G23">
-        <v>0.7865823456855594</v>
+        <v>0.7623529648345766</v>
       </c>
       <c r="H23">
-        <v>0.01002436990518507</v>
+        <v>0.009846669253330245</v>
       </c>
       <c r="I23">
-        <v>0.005940205739014992</v>
+        <v>0.005597314675946485</v>
       </c>
       <c r="J23">
-        <v>0.5068757359370295</v>
+        <v>0.339533527472355</v>
       </c>
       <c r="K23">
-        <v>0.4947798825172995</v>
+        <v>0.3880566859465659</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.166550033598174</v>
       </c>
       <c r="M23">
-        <v>1.289767960086664</v>
+        <v>0.139611548050393</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>4.336357375124379</v>
+        <v>1.226882582900771</v>
       </c>
       <c r="P23">
-        <v>0.8279176832764321</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>4.33277234506825</v>
+      </c>
+      <c r="R23">
+        <v>0.7387298667589732</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9474221350589289</v>
+        <v>0.8571393201072794</v>
       </c>
       <c r="C24">
-        <v>0.221647656036339</v>
+        <v>0.2543002501985256</v>
       </c>
       <c r="D24">
-        <v>0.07041630431874069</v>
+        <v>0.07898974146240789</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.8340467801909455</v>
+        <v>0.7396315697908307</v>
       </c>
       <c r="G24">
-        <v>0.7110189874374697</v>
+        <v>0.6120626591499132</v>
       </c>
       <c r="H24">
-        <v>0.005414080809618804</v>
+        <v>0.005375188911779682</v>
       </c>
       <c r="I24">
-        <v>0.003230308231539247</v>
+        <v>0.003422840223582746</v>
       </c>
       <c r="J24">
-        <v>0.478849990952483</v>
+        <v>0.4474521155288471</v>
       </c>
       <c r="K24">
-        <v>0.46703907522501</v>
+        <v>0.3906082635438466</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1772503758443094</v>
       </c>
       <c r="M24">
-        <v>1.10432204786278</v>
+        <v>0.1272300402670261</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>3.70217754004058</v>
+        <v>1.077964381638736</v>
       </c>
       <c r="P24">
-        <v>0.8646352224034857</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>3.701226508229027</v>
+      </c>
+      <c r="R24">
+        <v>0.7972503477130992</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.7758989089644217</v>
+        <v>0.7095903890154318</v>
       </c>
       <c r="C25">
-        <v>0.1829856518788517</v>
+        <v>0.2068223081417386</v>
       </c>
       <c r="D25">
-        <v>0.06176036890704495</v>
+        <v>0.0676690065315384</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.7381829795482062</v>
+        <v>0.6647808264342103</v>
       </c>
       <c r="G25">
-        <v>0.6327882908066158</v>
+        <v>0.5453082299069223</v>
       </c>
       <c r="H25">
-        <v>0.001941709757617982</v>
+        <v>0.001959968850781202</v>
       </c>
       <c r="I25">
-        <v>0.001500844097954257</v>
+        <v>0.001856233884747205</v>
       </c>
       <c r="J25">
-        <v>0.4504782870057795</v>
+        <v>0.4364519609412838</v>
       </c>
       <c r="K25">
-        <v>0.4386314834676242</v>
+        <v>0.3760606978162997</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.182748243764312</v>
       </c>
       <c r="M25">
-        <v>0.905323013227445</v>
+        <v>0.1087780376228658</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>3.026290345890345</v>
+        <v>0.888326261195175</v>
       </c>
       <c r="P25">
-        <v>0.90656020987511</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>3.026935770991173</v>
+      </c>
+      <c r="R25">
+        <v>0.8465871869718065</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
